--- a/Jogos_da_Semana_FlashScore_2025-04-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-02.xlsx
@@ -656,40 +656,40 @@
         <v>7.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="P2" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V2" t="n">
         <v>9.5</v>
@@ -701,10 +701,10 @@
         <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
         <v>11</v>
@@ -716,7 +716,7 @@
         <v>51</v>
       </c>
       <c r="AD2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE2" t="n">
         <v>23</v>
@@ -769,46 +769,46 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K3" t="n">
+        <v>13</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q3" t="n">
         <v>3.25</v>
       </c>
-      <c r="J3" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K3" t="n">
-        <v>17</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3.4</v>
-      </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U3" t="n">
         <v>13</v>
@@ -826,7 +826,7 @@
         <v>23</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
         <v>8</v>
@@ -841,7 +841,7 @@
         <v>151</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
         <v>21</v>
@@ -903,7 +903,7 @@
         <v>1.01</v>
       </c>
       <c r="K4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L4" t="n">
         <v>1.11</v>
@@ -1025,7 +1025,7 @@
         <v>1.02</v>
       </c>
       <c r="K5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L5" t="n">
         <v>1.14</v>
@@ -1052,7 +1052,7 @@
         <v>2.5</v>
       </c>
       <c r="T5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U5" t="n">
         <v>12</v>
@@ -1085,7 +1085,7 @@
         <v>126</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
         <v>29</v>
@@ -1138,10 +1138,10 @@
         <v>6</v>
       </c>
       <c r="H6" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="J6" t="n">
         <v>1.04</v>
@@ -1180,7 +1180,7 @@
         <v>34</v>
       </c>
       <c r="V6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="W6" t="n">
         <v>67</v>
@@ -1189,13 +1189,13 @@
         <v>41</v>
       </c>
       <c r="Y6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB6" t="n">
         <v>17</v>
@@ -1207,7 +1207,7 @@
         <v>301</v>
       </c>
       <c r="AE6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF6" t="n">
         <v>8.5</v>
@@ -1219,7 +1219,7 @@
         <v>13</v>
       </c>
       <c r="AI6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ6" t="n">
         <v>26</v>
@@ -1269,7 +1269,7 @@
         <v>1.04</v>
       </c>
       <c r="K7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L7" t="n">
         <v>1.25</v>
@@ -1296,7 +1296,7 @@
         <v>1.7</v>
       </c>
       <c r="T7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U7" t="n">
         <v>7</v>
@@ -1317,7 +1317,7 @@
         <v>12</v>
       </c>
       <c r="AA7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB7" t="n">
         <v>26</v>
@@ -1329,7 +1329,7 @@
         <v>501</v>
       </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H8" t="n">
         <v>5</v>
@@ -1406,10 +1406,10 @@
         <v>2.2</v>
       </c>
       <c r="P8" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R8" t="n">
         <v>1.95</v>
@@ -1418,10 +1418,10 @@
         <v>1.8</v>
       </c>
       <c r="T8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U8" t="n">
         <v>7</v>
-      </c>
-      <c r="U8" t="n">
-        <v>6.5</v>
       </c>
       <c r="V8" t="n">
         <v>8.5</v>
@@ -1430,28 +1430,28 @@
         <v>9</v>
       </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
         <v>26</v>
       </c>
       <c r="Z8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB8" t="n">
         <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD8" t="n">
         <v>351</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
@@ -1623,19 +1623,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I10" t="n">
         <v>7.5</v>
       </c>
       <c r="J10" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L10" t="n">
         <v>1.17</v>
@@ -1650,19 +1650,19 @@
         <v>2.4</v>
       </c>
       <c r="P10" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R10" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S10" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U10" t="n">
         <v>7.5</v>
@@ -1677,7 +1677,7 @@
         <v>11</v>
       </c>
       <c r="Y10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z10" t="n">
         <v>17</v>
@@ -1745,13 +1745,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H11" t="n">
         <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J11" t="n">
         <v>1.06</v>
@@ -1766,10 +1766,10 @@
         <v>3.25</v>
       </c>
       <c r="N11" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O11" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P11" t="n">
         <v>1.44</v>
@@ -1778,13 +1778,13 @@
         <v>2.63</v>
       </c>
       <c r="R11" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S11" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U11" t="n">
         <v>15</v>
@@ -1793,10 +1793,10 @@
         <v>11</v>
       </c>
       <c r="W11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y11" t="n">
         <v>34</v>
@@ -1820,13 +1820,13 @@
         <v>7.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG11" t="n">
         <v>9.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
         <v>19</v>
@@ -1989,13 +1989,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="H13" t="n">
         <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="J13" t="n">
         <v>1.05</v>
@@ -2010,10 +2010,10 @@
         <v>3.75</v>
       </c>
       <c r="N13" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P13" t="n">
         <v>1.4</v>
@@ -2034,7 +2034,7 @@
         <v>15</v>
       </c>
       <c r="V13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W13" t="n">
         <v>29</v>
@@ -2070,10 +2070,10 @@
         <v>10</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ13" t="n">
         <v>26</v>
@@ -2111,19 +2111,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J14" t="n">
         <v>1.01</v>
       </c>
       <c r="K14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L14" t="n">
         <v>1.07</v>
@@ -2132,34 +2132,34 @@
         <v>9</v>
       </c>
       <c r="N14" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="O14" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P14" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="Q14" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="R14" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V14" t="n">
         <v>10</v>
       </c>
       <c r="W14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X14" t="n">
         <v>10</v>
@@ -2168,7 +2168,7 @@
         <v>19</v>
       </c>
       <c r="Z14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA14" t="n">
         <v>15</v>
@@ -2180,7 +2180,7 @@
         <v>41</v>
       </c>
       <c r="AD14" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE14" t="n">
         <v>34</v>
@@ -2189,7 +2189,7 @@
         <v>51</v>
       </c>
       <c r="AG14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH14" t="n">
         <v>101</v>
@@ -2353,19 +2353,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H16" t="n">
         <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L16" t="n">
         <v>1.53</v>
@@ -2380,19 +2380,19 @@
         <v>1.44</v>
       </c>
       <c r="P16" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R16" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S16" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U16" t="n">
         <v>11</v>
@@ -2434,7 +2434,7 @@
         <v>12</v>
       </c>
       <c r="AH16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI16" t="n">
         <v>29</v>
@@ -2484,10 +2484,10 @@
         <v>3.4</v>
       </c>
       <c r="J17" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L17" t="n">
         <v>1.33</v>
@@ -2496,22 +2496,22 @@
         <v>3.25</v>
       </c>
       <c r="N17" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O17" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P17" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R17" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S17" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T17" t="n">
         <v>7</v>
@@ -2520,7 +2520,7 @@
         <v>10</v>
       </c>
       <c r="V17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W17" t="n">
         <v>21</v>
@@ -2529,28 +2529,28 @@
         <v>19</v>
       </c>
       <c r="Y17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA17" t="n">
         <v>6.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC17" t="n">
         <v>51</v>
       </c>
       <c r="AD17" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
         <v>12</v>
@@ -2603,7 +2603,7 @@
         <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J18" t="n">
         <v>1.1</v>
@@ -2612,10 +2612,10 @@
         <v>7</v>
       </c>
       <c r="L18" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M18" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N18" t="n">
         <v>2.5</v>
@@ -2639,7 +2639,7 @@
         <v>7.5</v>
       </c>
       <c r="U18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V18" t="n">
         <v>12</v>
@@ -2963,19 +2963,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H21" t="n">
         <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J21" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L21" t="n">
         <v>1.3</v>
@@ -3002,7 +3002,7 @@
         <v>1.95</v>
       </c>
       <c r="T21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U21" t="n">
         <v>12</v>
@@ -3038,7 +3038,7 @@
         <v>9</v>
       </c>
       <c r="AF21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG21" t="n">
         <v>11</v>
@@ -3050,7 +3050,7 @@
         <v>23</v>
       </c>
       <c r="AJ21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -3085,7 +3085,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="H22" t="n">
         <v>3.7</v>
@@ -3207,13 +3207,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H23" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I23" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J23" t="n">
         <v>1.08</v>
@@ -3234,25 +3234,25 @@
         <v>1.53</v>
       </c>
       <c r="P23" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R23" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U23" t="n">
         <v>9.5</v>
       </c>
       <c r="V23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W23" t="n">
         <v>21</v>
@@ -3261,22 +3261,22 @@
         <v>21</v>
       </c>
       <c r="Y23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA23" t="n">
         <v>6</v>
       </c>
       <c r="AB23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC23" t="n">
         <v>67</v>
       </c>
       <c r="AD23" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE23" t="n">
         <v>8</v>
@@ -3285,13 +3285,13 @@
         <v>15</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ23" t="n">
         <v>41</v>
@@ -3335,7 +3335,7 @@
         <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J24" t="n">
         <v>1.1</v>
@@ -3457,13 +3457,13 @@
         <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J25" t="n">
         <v>1.07</v>
       </c>
       <c r="K25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L25" t="n">
         <v>1.36</v>
@@ -3472,10 +3472,10 @@
         <v>3</v>
       </c>
       <c r="N25" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O25" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P25" t="n">
         <v>1.44</v>
@@ -3490,19 +3490,19 @@
         <v>1.8</v>
       </c>
       <c r="T25" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V25" t="n">
         <v>9</v>
       </c>
       <c r="W25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y25" t="n">
         <v>29</v>
@@ -3514,7 +3514,7 @@
         <v>6.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC25" t="n">
         <v>51</v>
@@ -3526,7 +3526,7 @@
         <v>9.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG25" t="n">
         <v>13</v>
@@ -3606,10 +3606,10 @@
         <v>3.75</v>
       </c>
       <c r="R26" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S26" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T26" t="n">
         <v>8</v>
@@ -3624,7 +3624,7 @@
         <v>6.5</v>
       </c>
       <c r="X26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y26" t="n">
         <v>34</v>
@@ -3646,7 +3646,7 @@
         <v>34</v>
       </c>
       <c r="AF26" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG26" t="n">
         <v>41</v>
@@ -3815,19 +3815,19 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H28" t="n">
         <v>3.75</v>
       </c>
       <c r="I28" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="J28" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L28" t="n">
         <v>1.25</v>
@@ -3836,10 +3836,10 @@
         <v>3.75</v>
       </c>
       <c r="N28" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="O28" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="P28" t="n">
         <v>1.36</v>
@@ -3848,22 +3848,22 @@
         <v>3</v>
       </c>
       <c r="R28" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S28" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T28" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V28" t="n">
         <v>9.5</v>
       </c>
       <c r="W28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X28" t="n">
         <v>17</v>
@@ -3872,7 +3872,7 @@
         <v>26</v>
       </c>
       <c r="Z28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA28" t="n">
         <v>7.5</v>
@@ -3899,7 +3899,7 @@
         <v>29</v>
       </c>
       <c r="AI28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ28" t="n">
         <v>29</v>
@@ -3946,10 +3946,10 @@
         <v>5.5</v>
       </c>
       <c r="J29" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L29" t="n">
         <v>1.22</v>
@@ -3958,10 +3958,10 @@
         <v>4</v>
       </c>
       <c r="N29" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O29" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P29" t="n">
         <v>1.33</v>
@@ -4059,13 +4059,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H30" t="n">
         <v>3.4</v>
       </c>
       <c r="I30" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
         <v>1.04</v>
@@ -4086,16 +4086,16 @@
         <v>2.08</v>
       </c>
       <c r="P30" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q30" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R30" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S30" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T30" t="n">
         <v>9.5</v>
@@ -4107,16 +4107,16 @@
         <v>9.5</v>
       </c>
       <c r="W30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y30" t="n">
         <v>23</v>
       </c>
       <c r="Z30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA30" t="n">
         <v>6.5</v>
@@ -4131,10 +4131,10 @@
         <v>151</v>
       </c>
       <c r="AE30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG30" t="n">
         <v>11</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-02.xlsx
@@ -784,10 +784,10 @@
         <v>13</v>
       </c>
       <c r="L3" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N3" t="n">
         <v>1.67</v>
@@ -1025,7 +1025,7 @@
         <v>1.02</v>
       </c>
       <c r="K5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L5" t="n">
         <v>1.14</v>
@@ -1269,7 +1269,7 @@
         <v>1.04</v>
       </c>
       <c r="K7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L7" t="n">
         <v>1.25</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
         <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J9" t="n">
         <v>1.05</v>
@@ -1516,16 +1516,16 @@
         <v>11</v>
       </c>
       <c r="L9" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M9" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N9" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P9" t="n">
         <v>1.4</v>
@@ -1534,19 +1534,19 @@
         <v>2.75</v>
       </c>
       <c r="R9" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S9" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U9" t="n">
         <v>9.5</v>
       </c>
       <c r="V9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W9" t="n">
         <v>17</v>
@@ -1570,7 +1570,7 @@
         <v>51</v>
       </c>
       <c r="AD9" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE9" t="n">
         <v>11</v>
@@ -1579,7 +1579,7 @@
         <v>19</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
         <v>41</v>
@@ -1882,16 +1882,16 @@
         <v>13</v>
       </c>
       <c r="L12" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N12" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O12" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P12" t="n">
         <v>1.33</v>
@@ -1989,19 +1989,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H13" t="n">
         <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L13" t="n">
         <v>1.25</v>
@@ -2010,10 +2010,10 @@
         <v>3.75</v>
       </c>
       <c r="N13" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O13" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P13" t="n">
         <v>1.4</v>
@@ -2034,7 +2034,7 @@
         <v>15</v>
       </c>
       <c r="V13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W13" t="n">
         <v>29</v>
@@ -2046,7 +2046,7 @@
         <v>29</v>
       </c>
       <c r="Z13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA13" t="n">
         <v>6</v>
@@ -2061,7 +2061,7 @@
         <v>151</v>
       </c>
       <c r="AE13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF13" t="n">
         <v>13</v>
@@ -2070,10 +2070,10 @@
         <v>10</v>
       </c>
       <c r="AH13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ13" t="n">
         <v>26</v>
@@ -2111,94 +2111,90 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M14" t="n">
+        <v>17</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="O14" t="n">
         <v>6.5</v>
       </c>
-      <c r="I14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K14" t="n">
-        <v>34</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="M14" t="n">
-        <v>9</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="O14" t="n">
-        <v>4</v>
-      </c>
       <c r="P14" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R14" t="n">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="S14" t="n">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="T14" t="n">
+        <v>26</v>
+      </c>
+      <c r="U14" t="n">
+        <v>17</v>
+      </c>
+      <c r="V14" t="n">
+        <v>12</v>
+      </c>
+      <c r="W14" t="n">
         <v>15</v>
       </c>
-      <c r="U14" t="n">
-        <v>10</v>
-      </c>
-      <c r="V14" t="n">
-        <v>10</v>
-      </c>
-      <c r="W14" t="n">
-        <v>10</v>
-      </c>
       <c r="X14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y14" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Z14" t="n">
         <v>34</v>
       </c>
       <c r="AA14" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AB14" t="n">
         <v>19</v>
       </c>
       <c r="AC14" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AD14" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AE14" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AF14" t="n">
         <v>51</v>
       </c>
       <c r="AG14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH14" t="n">
         <v>101</v>
       </c>
       <c r="AI14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -2484,10 +2480,10 @@
         <v>3.4</v>
       </c>
       <c r="J17" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L17" t="n">
         <v>1.33</v>
@@ -2606,10 +2602,10 @@
         <v>2.4</v>
       </c>
       <c r="J18" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L18" t="n">
         <v>1.5</v>
@@ -2654,7 +2650,7 @@
         <v>41</v>
       </c>
       <c r="Z18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA18" t="n">
         <v>6</v>
@@ -2719,19 +2715,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H19" t="n">
         <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J19" t="n">
         <v>1.04</v>
       </c>
       <c r="K19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L19" t="n">
         <v>1.22</v>
@@ -2746,10 +2742,10 @@
         <v>2.05</v>
       </c>
       <c r="P19" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R19" t="n">
         <v>1.67</v>
@@ -2776,7 +2772,7 @@
         <v>23</v>
       </c>
       <c r="Z19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA19" t="n">
         <v>7</v>
@@ -3085,19 +3081,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H22" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L22" t="n">
         <v>1.33</v>
@@ -3127,7 +3123,7 @@
         <v>6.5</v>
       </c>
       <c r="U22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V22" t="n">
         <v>8.5</v>
@@ -3136,13 +3132,13 @@
         <v>15</v>
       </c>
       <c r="X22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y22" t="n">
         <v>29</v>
       </c>
       <c r="Z22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA22" t="n">
         <v>7</v>
@@ -3463,7 +3459,7 @@
         <v>1.07</v>
       </c>
       <c r="K25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L25" t="n">
         <v>1.36</v>
@@ -3472,10 +3468,10 @@
         <v>3</v>
       </c>
       <c r="N25" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P25" t="n">
         <v>1.44</v>
@@ -3946,13 +3942,13 @@
         <v>5.5</v>
       </c>
       <c r="J29" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K29" t="n">
         <v>15</v>
       </c>
       <c r="L29" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-02.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H2" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
         <v>1.03</v>
@@ -668,10 +668,10 @@
         <v>5</v>
       </c>
       <c r="N2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="P2" t="n">
         <v>1.29</v>
@@ -769,19 +769,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H3" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L3" t="n">
         <v>1.2</v>
@@ -796,10 +796,10 @@
         <v>2.2</v>
       </c>
       <c r="P3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R3" t="n">
         <v>1.57</v>
@@ -808,13 +808,13 @@
         <v>2.25</v>
       </c>
       <c r="T3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W3" t="n">
         <v>21</v>
@@ -832,7 +832,7 @@
         <v>8</v>
       </c>
       <c r="AB3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC3" t="n">
         <v>41</v>
@@ -841,7 +841,7 @@
         <v>151</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>41</v>
       </c>
       <c r="AI3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -900,70 +900,70 @@
         <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K4" t="n">
+        <v>21</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>11</v>
+      </c>
+      <c r="W4" t="n">
+        <v>8</v>
+      </c>
+      <c r="X4" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z4" t="n">
         <v>23</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="O4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T4" t="n">
-        <v>11</v>
-      </c>
-      <c r="U4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="V4" t="n">
-        <v>10</v>
-      </c>
-      <c r="W4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>26</v>
       </c>
       <c r="AA4" t="n">
         <v>17</v>
       </c>
       <c r="AB4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>501</v>
+      </c>
+      <c r="AE4" t="n">
         <v>29</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>34</v>
       </c>
       <c r="AF4" t="n">
         <v>51</v>
@@ -975,10 +975,10 @@
         <v>151</v>
       </c>
       <c r="AI4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>67</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="H6" t="n">
         <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="J6" t="n">
         <v>1.04</v>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H7" t="n">
         <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J7" t="n">
         <v>1.04</v>
@@ -1335,7 +1335,7 @@
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH7" t="n">
         <v>101</v>
@@ -1344,7 +1344,7 @@
         <v>67</v>
       </c>
       <c r="AJ7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
@@ -1379,49 +1379,49 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I8" t="n">
         <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L8" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="M8" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="N8" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="O8" t="n">
-        <v>2.2</v>
+        <v>2.03</v>
       </c>
       <c r="P8" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S8" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="T8" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="U8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V8" t="n">
         <v>8.5</v>
@@ -1430,31 +1430,31 @@
         <v>9</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z8" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB8" t="n">
         <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD8" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG8" t="n">
         <v>21</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="J9" t="n">
         <v>1.05</v>
@@ -1528,31 +1528,31 @@
         <v>1.95</v>
       </c>
       <c r="P9" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R9" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U9" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="V9" t="n">
         <v>9</v>
       </c>
       <c r="W9" t="n">
+        <v>21</v>
+      </c>
+      <c r="X9" t="n">
         <v>17</v>
-      </c>
-      <c r="X9" t="n">
-        <v>15</v>
       </c>
       <c r="Y9" t="n">
         <v>26</v>
@@ -1561,34 +1561,34 @@
         <v>11</v>
       </c>
       <c r="AA9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD9" t="n">
         <v>201</v>
       </c>
       <c r="AE9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG9" t="n">
         <v>11</v>
       </c>
-      <c r="AF9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>12</v>
-      </c>
       <c r="AH9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>29</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -1623,46 +1623,46 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="H10" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="I10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L10" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N10" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="O10" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="P10" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R10" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U10" t="n">
         <v>7.5</v>
@@ -1671,22 +1671,22 @@
         <v>8.5</v>
       </c>
       <c r="W10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X10" t="n">
         <v>11</v>
       </c>
       <c r="Y10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB10" t="n">
         <v>17</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>19</v>
       </c>
       <c r="AC10" t="n">
         <v>51</v>
@@ -1707,7 +1707,7 @@
         <v>81</v>
       </c>
       <c r="AI10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ10" t="n">
         <v>41</v>
@@ -1751,7 +1751,7 @@
         <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J11" t="n">
         <v>1.06</v>
@@ -1760,16 +1760,16 @@
         <v>10</v>
       </c>
       <c r="L11" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M11" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N11" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P11" t="n">
         <v>1.44</v>
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H12" t="n">
         <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="J12" t="n">
         <v>1.04</v>
@@ -1882,16 +1882,16 @@
         <v>13</v>
       </c>
       <c r="L12" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M12" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N12" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O12" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P12" t="n">
         <v>1.33</v>
@@ -1900,28 +1900,28 @@
         <v>3.25</v>
       </c>
       <c r="R12" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S12" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T12" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="U12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="V12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z12" t="n">
         <v>13</v>
@@ -1942,19 +1942,19 @@
         <v>11</v>
       </c>
       <c r="AF12" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -1989,19 +1989,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H13" t="n">
         <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L13" t="n">
         <v>1.25</v>
@@ -2010,10 +2010,10 @@
         <v>3.75</v>
       </c>
       <c r="N13" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="O13" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="P13" t="n">
         <v>1.4</v>
@@ -2349,19 +2349,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="H16" t="n">
         <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J16" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L16" t="n">
         <v>1.53</v>
@@ -2391,16 +2391,16 @@
         <v>6</v>
       </c>
       <c r="U16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y16" t="n">
         <v>41</v>
@@ -2433,7 +2433,7 @@
         <v>34</v>
       </c>
       <c r="AI16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ16" t="n">
         <v>41</v>
@@ -2471,19 +2471,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H17" t="n">
         <v>3.3</v>
       </c>
       <c r="I17" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J17" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L17" t="n">
         <v>1.33</v>
@@ -2492,10 +2492,10 @@
         <v>3.25</v>
       </c>
       <c r="N17" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P17" t="n">
         <v>1.44</v>
@@ -2516,7 +2516,7 @@
         <v>10</v>
       </c>
       <c r="V17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W17" t="n">
         <v>21</v>
@@ -2531,7 +2531,7 @@
         <v>9</v>
       </c>
       <c r="AA17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB17" t="n">
         <v>15</v>
@@ -2543,10 +2543,10 @@
         <v>301</v>
       </c>
       <c r="AE17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG17" t="n">
         <v>12</v>
@@ -2593,19 +2593,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="J18" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L18" t="n">
         <v>1.5</v>
@@ -2632,19 +2632,19 @@
         <v>1.7</v>
       </c>
       <c r="T18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U18" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="V18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y18" t="n">
         <v>41</v>
@@ -2665,19 +2665,19 @@
         <v>501</v>
       </c>
       <c r="AE18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AG18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AI18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ18" t="n">
         <v>41</v>
@@ -2715,49 +2715,49 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J19" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L19" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N19" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O19" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="P19" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R19" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="S19" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T19" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="U19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V19" t="n">
         <v>8.5</v>
@@ -2769,25 +2769,25 @@
         <v>15</v>
       </c>
       <c r="Y19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE19" t="n">
         <v>12</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>13</v>
       </c>
       <c r="AF19" t="n">
         <v>21</v>
@@ -2799,10 +2799,10 @@
         <v>41</v>
       </c>
       <c r="AI19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
@@ -2837,13 +2837,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H20" t="n">
         <v>3.1</v>
       </c>
       <c r="I20" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J20" t="n">
         <v>1.07</v>
@@ -2876,7 +2876,7 @@
         <v>1.95</v>
       </c>
       <c r="T20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U20" t="n">
         <v>13</v>
@@ -2912,7 +2912,7 @@
         <v>8</v>
       </c>
       <c r="AF20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG20" t="n">
         <v>10</v>
@@ -2921,7 +2921,7 @@
         <v>26</v>
       </c>
       <c r="AI20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ20" t="n">
         <v>34</v>
@@ -2959,19 +2959,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="H21" t="n">
         <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="J21" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L21" t="n">
         <v>1.3</v>
@@ -2992,22 +2992,22 @@
         <v>2.75</v>
       </c>
       <c r="R21" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S21" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X21" t="n">
         <v>21</v>
@@ -3031,22 +3031,22 @@
         <v>251</v>
       </c>
       <c r="AE21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>29</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -3081,19 +3081,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H22" t="n">
         <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="J22" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L22" t="n">
         <v>1.33</v>
@@ -3102,10 +3102,10 @@
         <v>3.25</v>
       </c>
       <c r="N22" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O22" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P22" t="n">
         <v>1.44</v>
@@ -3114,22 +3114,22 @@
         <v>2.63</v>
       </c>
       <c r="R22" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S22" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T22" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X22" t="n">
         <v>17</v>
@@ -3138,7 +3138,7 @@
         <v>29</v>
       </c>
       <c r="Z22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA22" t="n">
         <v>7</v>
@@ -3150,13 +3150,13 @@
         <v>51</v>
       </c>
       <c r="AD22" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE22" t="n">
         <v>10</v>
       </c>
       <c r="AF22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG22" t="n">
         <v>13</v>
@@ -3165,7 +3165,7 @@
         <v>41</v>
       </c>
       <c r="AI22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ22" t="n">
         <v>41</v>
@@ -3206,49 +3206,49 @@
         <v>2.25</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J23" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L23" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M23" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N23" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P23" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S23" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="T23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U23" t="n">
         <v>9.5</v>
       </c>
       <c r="V23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W23" t="n">
         <v>21</v>
@@ -3257,16 +3257,16 @@
         <v>21</v>
       </c>
       <c r="Y23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z23" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA23" t="n">
         <v>6</v>
       </c>
       <c r="AB23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC23" t="n">
         <v>67</v>
@@ -3281,13 +3281,13 @@
         <v>15</v>
       </c>
       <c r="AG23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI23" t="n">
         <v>34</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>29</v>
       </c>
       <c r="AJ23" t="n">
         <v>41</v>
@@ -3325,43 +3325,43 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I24" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="K24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q24" t="n">
         <v>2.2</v>
       </c>
-      <c r="J24" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K24" t="n">
-        <v>7</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M24" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P24" t="n">
+      <c r="R24" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S24" t="n">
         <v>1.57</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.67</v>
       </c>
       <c r="T24" t="n">
         <v>8</v>
@@ -3370,37 +3370,37 @@
         <v>17</v>
       </c>
       <c r="V24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W24" t="n">
         <v>41</v>
       </c>
       <c r="X24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z24" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AA24" t="n">
         <v>6</v>
       </c>
       <c r="AB24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC24" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD24" t="n">
         <v>501</v>
       </c>
       <c r="AE24" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG24" t="n">
         <v>10</v>
@@ -3409,7 +3409,7 @@
         <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ24" t="n">
         <v>41</v>
@@ -3447,19 +3447,19 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I25" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J25" t="n">
         <v>1.07</v>
       </c>
       <c r="K25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L25" t="n">
         <v>1.36</v>
@@ -3519,7 +3519,7 @@
         <v>351</v>
       </c>
       <c r="AE25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF25" t="n">
         <v>19</v>
@@ -3698,10 +3698,10 @@
         <v>1.95</v>
       </c>
       <c r="J27" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K27" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L27" t="n">
         <v>1.44</v>
@@ -3820,10 +3820,10 @@
         <v>2.75</v>
       </c>
       <c r="J28" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="K28" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L28" t="n">
         <v>1.25</v>
@@ -3933,49 +3933,49 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H29" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I29" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J29" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K29" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L29" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N29" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O29" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P29" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R29" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S29" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T29" t="n">
         <v>7.5</v>
       </c>
       <c r="U29" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V29" t="n">
         <v>8.5</v>
@@ -3984,16 +3984,16 @@
         <v>11</v>
       </c>
       <c r="X29" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z29" t="n">
         <v>12</v>
       </c>
-      <c r="Y29" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>13</v>
-      </c>
       <c r="AA29" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB29" t="n">
         <v>17</v>
@@ -4002,7 +4002,7 @@
         <v>51</v>
       </c>
       <c r="AD29" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE29" t="n">
         <v>15</v>
@@ -4055,55 +4055,55 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="H30" t="n">
         <v>3.4</v>
       </c>
       <c r="I30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K30" t="n">
+        <v>11</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q30" t="n">
         <v>3</v>
       </c>
-      <c r="J30" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K30" t="n">
-        <v>13</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M30" t="n">
-        <v>4</v>
-      </c>
-      <c r="N30" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="O30" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>3.25</v>
-      </c>
       <c r="R30" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="S30" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="T30" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="U30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V30" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X30" t="n">
         <v>17</v>
@@ -4112,13 +4112,13 @@
         <v>23</v>
       </c>
       <c r="Z30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA30" t="n">
         <v>6.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC30" t="n">
         <v>41</v>
@@ -4130,19 +4130,19 @@
         <v>12</v>
       </c>
       <c r="AF30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI30" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AJ30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-02.xlsx
@@ -769,25 +769,25 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="J3" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L3" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N3" t="n">
         <v>1.67</v>
@@ -796,10 +796,10 @@
         <v>2.2</v>
       </c>
       <c r="P3" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R3" t="n">
         <v>1.57</v>
@@ -808,16 +808,16 @@
         <v>2.25</v>
       </c>
       <c r="T3" t="n">
+        <v>11</v>
+      </c>
+      <c r="U3" t="n">
+        <v>13</v>
+      </c>
+      <c r="V3" t="n">
         <v>10</v>
       </c>
-      <c r="U3" t="n">
-        <v>12</v>
-      </c>
-      <c r="V3" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X3" t="n">
         <v>17</v>
@@ -832,7 +832,7 @@
         <v>8</v>
       </c>
       <c r="AB3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC3" t="n">
         <v>41</v>
@@ -841,22 +841,22 @@
         <v>151</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
         <v>41</v>
       </c>
       <c r="AI3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>29</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -930,7 +930,7 @@
         <v>1.75</v>
       </c>
       <c r="T4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U4" t="n">
         <v>7.5</v>
@@ -978,7 +978,7 @@
         <v>81</v>
       </c>
       <c r="AJ4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -1257,91 +1257,91 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="I7" t="n">
-        <v>7.5</v>
+        <v>6.25</v>
       </c>
       <c r="J7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L7" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N7" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="O7" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
         <v>2</v>
       </c>
-      <c r="P7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.05</v>
-      </c>
       <c r="S7" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T7" t="n">
         <v>7.5</v>
       </c>
       <c r="U7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V7" t="n">
         <v>9.5</v>
       </c>
       <c r="W7" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB7" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AC7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD7" t="n">
         <v>501</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ7" t="n">
         <v>51</v>
@@ -1391,7 +1391,7 @@
         <v>1.04</v>
       </c>
       <c r="K8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L8" t="n">
         <v>1.25</v>
@@ -1400,10 +1400,10 @@
         <v>3.75</v>
       </c>
       <c r="N8" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="O8" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="P8" t="n">
         <v>1.36</v>
@@ -1501,94 +1501,94 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="J9" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K9" t="n">
+        <v>13</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T9" t="n">
         <v>11</v>
       </c>
-      <c r="L9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T9" t="n">
-        <v>8.5</v>
-      </c>
       <c r="U9" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="V9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W9" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z9" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC9" t="n">
         <v>41</v>
       </c>
       <c r="AD9" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AE9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG9" t="n">
         <v>10</v>
       </c>
-      <c r="AF9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>11</v>
-      </c>
       <c r="AH9" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>23</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="10">
@@ -1623,31 +1623,31 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="H10" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J10" t="n">
         <v>1.03</v>
       </c>
       <c r="K10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M10" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N10" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O10" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P10" t="n">
         <v>1.29</v>
@@ -1656,22 +1656,22 @@
         <v>3.5</v>
       </c>
       <c r="R10" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S10" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V10" t="n">
         <v>8.5</v>
       </c>
       <c r="W10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X10" t="n">
         <v>11</v>
@@ -1683,16 +1683,16 @@
         <v>15</v>
       </c>
       <c r="AA10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC10" t="n">
         <v>51</v>
       </c>
       <c r="AD10" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -1707,10 +1707,10 @@
         <v>81</v>
       </c>
       <c r="AI10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
@@ -1745,13 +1745,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
         <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="J11" t="n">
         <v>1.06</v>
@@ -1784,7 +1784,7 @@
         <v>1.91</v>
       </c>
       <c r="T11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U11" t="n">
         <v>15</v>
@@ -1802,7 +1802,7 @@
         <v>34</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA11" t="n">
         <v>6.5</v>
@@ -1820,7 +1820,7 @@
         <v>7.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG11" t="n">
         <v>9.5</v>
@@ -1829,7 +1829,7 @@
         <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ11" t="n">
         <v>29</v>
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H12" t="n">
         <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J12" t="n">
         <v>1.04</v>
@@ -1882,16 +1882,16 @@
         <v>13</v>
       </c>
       <c r="L12" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N12" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O12" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P12" t="n">
         <v>1.33</v>
@@ -1942,7 +1942,7 @@
         <v>11</v>
       </c>
       <c r="AF12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG12" t="n">
         <v>10</v>
@@ -1954,7 +1954,7 @@
         <v>19</v>
       </c>
       <c r="AJ12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
@@ -1989,13 +1989,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H13" t="n">
         <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J13" t="n">
         <v>1.05</v>
@@ -2010,10 +2010,10 @@
         <v>3.75</v>
       </c>
       <c r="N13" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O13" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
         <v>1.4</v>
@@ -2046,7 +2046,7 @@
         <v>29</v>
       </c>
       <c r="Z13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA13" t="n">
         <v>6</v>
@@ -2061,7 +2061,7 @@
         <v>151</v>
       </c>
       <c r="AE13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF13" t="n">
         <v>13</v>
@@ -2070,10 +2070,10 @@
         <v>10</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ13" t="n">
         <v>26</v>
@@ -2111,27 +2111,31 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I14" t="n">
         <v>7.5</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K14" t="n">
+        <v>34</v>
+      </c>
       <c r="L14" t="n">
         <v>1.03</v>
       </c>
       <c r="M14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N14" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="O14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P14" t="n">
         <v>1.1</v>
@@ -2170,7 +2174,7 @@
         <v>21</v>
       </c>
       <c r="AB14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC14" t="n">
         <v>29</v>
@@ -2179,7 +2183,7 @@
         <v>67</v>
       </c>
       <c r="AE14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AF14" t="n">
         <v>51</v>
@@ -2188,13 +2192,13 @@
         <v>26</v>
       </c>
       <c r="AH14" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="n">
         <v>41</v>
       </c>
       <c r="AJ14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
@@ -2229,13 +2233,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J15" t="n">
         <v>1.13</v>
@@ -2271,16 +2275,16 @@
         <v>5.5</v>
       </c>
       <c r="U15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V15" t="n">
         <v>10</v>
       </c>
       <c r="W15" t="n">
+        <v>19</v>
+      </c>
+      <c r="X15" t="n">
         <v>21</v>
-      </c>
-      <c r="X15" t="n">
-        <v>23</v>
       </c>
       <c r="Y15" t="n">
         <v>41</v>
@@ -2299,13 +2303,13 @@
       </c>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG15" t="n">
         <v>15</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>13</v>
       </c>
       <c r="AH15" t="n">
         <v>41</v>
@@ -2349,85 +2353,85 @@
         </is>
       </c>
       <c r="G16" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="K16" t="n">
+        <v>6</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R16" t="n">
         <v>2.38</v>
       </c>
-      <c r="H16" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>7</v>
-      </c>
-      <c r="L16" t="n">
+      <c r="S16" t="n">
         <v>1.53</v>
       </c>
-      <c r="M16" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.62</v>
-      </c>
       <c r="T16" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U16" t="n">
         <v>10</v>
       </c>
       <c r="V16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W16" t="n">
         <v>23</v>
       </c>
       <c r="X16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y16" t="n">
         <v>41</v>
       </c>
       <c r="Z16" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AA16" t="n">
         <v>6</v>
       </c>
       <c r="AB16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC16" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD16" t="n">
         <v>101</v>
       </c>
       <c r="AE16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF16" t="n">
         <v>13</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
         <v>34</v>
@@ -2436,7 +2440,7 @@
         <v>34</v>
       </c>
       <c r="AJ16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
@@ -2471,67 +2475,67 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H17" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J17" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L17" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M17" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N17" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O17" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="P17" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R17" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S17" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U17" t="n">
         <v>10</v>
       </c>
       <c r="V17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y17" t="n">
         <v>29</v>
       </c>
       <c r="Z17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB17" t="n">
         <v>15</v>
@@ -2540,25 +2544,25 @@
         <v>51</v>
       </c>
       <c r="AD17" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
         <v>12</v>
       </c>
       <c r="AH17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI17" t="n">
         <v>29</v>
       </c>
       <c r="AJ17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
@@ -2593,19 +2597,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="J18" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L18" t="n">
         <v>1.5</v>
@@ -2635,16 +2639,16 @@
         <v>7</v>
       </c>
       <c r="U18" t="n">
+        <v>13</v>
+      </c>
+      <c r="V18" t="n">
         <v>12</v>
-      </c>
-      <c r="V18" t="n">
-        <v>11</v>
       </c>
       <c r="W18" t="n">
         <v>29</v>
       </c>
       <c r="X18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y18" t="n">
         <v>41</v>
@@ -2665,16 +2669,16 @@
         <v>501</v>
       </c>
       <c r="AE18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG18" t="n">
         <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI18" t="n">
         <v>26</v>
@@ -2715,13 +2719,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I19" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J19" t="n">
         <v>1.05</v>
@@ -2736,10 +2740,10 @@
         <v>3.5</v>
       </c>
       <c r="N19" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="O19" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="P19" t="n">
         <v>1.4</v>
@@ -2757,13 +2761,13 @@
         <v>7.5</v>
       </c>
       <c r="U19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V19" t="n">
         <v>8.5</v>
       </c>
       <c r="W19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X19" t="n">
         <v>15</v>
@@ -2772,10 +2776,10 @@
         <v>26</v>
       </c>
       <c r="Z19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB19" t="n">
         <v>15</v>
@@ -2837,13 +2841,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H20" t="n">
         <v>3.1</v>
       </c>
       <c r="I20" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J20" t="n">
         <v>1.07</v>
@@ -2852,16 +2856,16 @@
         <v>9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M20" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N20" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P20" t="n">
         <v>1.44</v>
@@ -2870,10 +2874,10 @@
         <v>2.63</v>
       </c>
       <c r="R20" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S20" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T20" t="n">
         <v>8</v>
@@ -2882,10 +2886,10 @@
         <v>13</v>
       </c>
       <c r="V20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X20" t="n">
         <v>23</v>
@@ -2915,10 +2919,10 @@
         <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI20" t="n">
         <v>23</v>
@@ -2959,19 +2963,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="H21" t="n">
         <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="J21" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L21" t="n">
         <v>1.3</v>
@@ -2980,10 +2984,10 @@
         <v>3.4</v>
       </c>
       <c r="N21" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O21" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P21" t="n">
         <v>1.4</v>
@@ -2992,22 +2996,22 @@
         <v>2.75</v>
       </c>
       <c r="R21" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T21" t="n">
         <v>8.5</v>
       </c>
       <c r="U21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X21" t="n">
         <v>21</v>
@@ -3031,19 +3035,19 @@
         <v>251</v>
       </c>
       <c r="AE21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF21" t="n">
         <v>13</v>
       </c>
       <c r="AG21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ21" t="n">
         <v>29</v>
@@ -3081,19 +3085,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J22" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L22" t="n">
         <v>1.33</v>
@@ -3105,7 +3109,7 @@
         <v>2.05</v>
       </c>
       <c r="O22" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P22" t="n">
         <v>1.44</v>
@@ -3138,10 +3142,10 @@
         <v>29</v>
       </c>
       <c r="Z22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB22" t="n">
         <v>17</v>
@@ -3254,7 +3258,7 @@
         <v>21</v>
       </c>
       <c r="X23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y23" t="n">
         <v>41</v>
@@ -3269,13 +3273,13 @@
         <v>19</v>
       </c>
       <c r="AC23" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD23" t="n">
         <v>451</v>
       </c>
       <c r="AE23" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF23" t="n">
         <v>15</v>
@@ -3325,19 +3329,19 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H24" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I24" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="J24" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K24" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L24" t="n">
         <v>1.57</v>
@@ -3352,10 +3356,10 @@
         <v>1.4</v>
       </c>
       <c r="P24" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R24" t="n">
         <v>2.25</v>
@@ -3364,7 +3368,7 @@
         <v>1.57</v>
       </c>
       <c r="T24" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U24" t="n">
         <v>17</v>
@@ -3400,7 +3404,7 @@
         <v>5.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG24" t="n">
         <v>10</v>
@@ -3459,7 +3463,7 @@
         <v>1.07</v>
       </c>
       <c r="K25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L25" t="n">
         <v>1.36</v>
@@ -3572,7 +3576,7 @@
         <v>1.14</v>
       </c>
       <c r="H26" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="I26" t="n">
         <v>17</v>
@@ -3581,37 +3585,37 @@
         <v>1.02</v>
       </c>
       <c r="K26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L26" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="M26" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="N26" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="O26" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="P26" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R26" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="S26" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="T26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U26" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V26" t="n">
         <v>11</v>
@@ -3620,13 +3624,13 @@
         <v>6.5</v>
       </c>
       <c r="X26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y26" t="n">
         <v>34</v>
       </c>
       <c r="Z26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA26" t="n">
         <v>15</v>
@@ -3637,7 +3641,9 @@
       <c r="AC26" t="n">
         <v>101</v>
       </c>
-      <c r="AD26" t="inlineStr"/>
+      <c r="AD26" t="n">
+        <v>501</v>
+      </c>
       <c r="AE26" t="n">
         <v>34</v>
       </c>
@@ -3648,13 +3654,13 @@
         <v>41</v>
       </c>
       <c r="AH26" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AI26" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AJ26" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
@@ -3945,7 +3951,7 @@
         <v>1.04</v>
       </c>
       <c r="K29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L29" t="n">
         <v>1.25</v>
@@ -3954,10 +3960,10 @@
         <v>3.75</v>
       </c>
       <c r="N29" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="O29" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="P29" t="n">
         <v>1.36</v>
@@ -3972,7 +3978,7 @@
         <v>1.83</v>
       </c>
       <c r="T29" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U29" t="n">
         <v>7.5</v>
@@ -3996,19 +4002,19 @@
         <v>8</v>
       </c>
       <c r="AB29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC29" t="n">
         <v>51</v>
       </c>
       <c r="AD29" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG29" t="n">
         <v>17</v>
@@ -4055,13 +4061,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H30" t="n">
         <v>3.4</v>
       </c>
       <c r="I30" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J30" t="n">
         <v>1.05</v>
@@ -4070,31 +4076,31 @@
         <v>11</v>
       </c>
       <c r="L30" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M30" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N30" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O30" t="n">
         <v>1.88</v>
       </c>
-      <c r="O30" t="n">
-        <v>1.98</v>
-      </c>
       <c r="P30" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R30" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S30" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T30" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U30" t="n">
         <v>11</v>
@@ -4103,34 +4109,34 @@
         <v>9</v>
       </c>
       <c r="W30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X30" t="n">
         <v>17</v>
       </c>
       <c r="Y30" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z30" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA30" t="n">
         <v>6.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD30" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE30" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG30" t="n">
         <v>12</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-02.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H2" t="n">
         <v>5</v>
@@ -695,7 +695,7 @@
         <v>9.5</v>
       </c>
       <c r="W2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
@@ -719,16 +719,16 @@
         <v>301</v>
       </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI2" t="n">
         <v>51</v>
@@ -784,10 +784,10 @@
         <v>13</v>
       </c>
       <c r="L3" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N3" t="n">
         <v>1.67</v>
@@ -924,10 +924,10 @@
         <v>4</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S4" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T4" t="n">
         <v>11</v>
@@ -960,7 +960,7 @@
         <v>81</v>
       </c>
       <c r="AD4" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE4" t="n">
         <v>29</v>
@@ -1085,7 +1085,7 @@
         <v>126</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>29</v>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H7" t="n">
         <v>4.33</v>
       </c>
       <c r="I7" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J7" t="n">
         <v>1.05</v>
@@ -1278,28 +1278,28 @@
         <v>3.75</v>
       </c>
       <c r="N7" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="O7" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="P7" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S7" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V7" t="n">
         <v>9.5</v>
@@ -1311,7 +1311,7 @@
         <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z7" t="n">
         <v>11</v>
@@ -1320,10 +1320,10 @@
         <v>9</v>
       </c>
       <c r="AB7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD7" t="n">
         <v>501</v>
@@ -1332,7 +1332,7 @@
         <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG7" t="n">
         <v>21</v>
@@ -1391,7 +1391,7 @@
         <v>1.04</v>
       </c>
       <c r="K8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L8" t="n">
         <v>1.25</v>
@@ -1400,10 +1400,10 @@
         <v>3.75</v>
       </c>
       <c r="N8" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="O8" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="P8" t="n">
         <v>1.36</v>
@@ -1451,7 +1451,7 @@
         <v>451</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
         <v>34</v>
@@ -1623,52 +1623,52 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J10" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K10" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L10" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N10" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="O10" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="P10" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R10" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S10" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W10" t="n">
         <v>9</v>
@@ -1680,10 +1680,10 @@
         <v>23</v>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AB10" t="n">
         <v>19</v>
@@ -1695,16 +1695,16 @@
         <v>251</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI10" t="n">
         <v>51</v>
@@ -1745,19 +1745,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H11" t="n">
         <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="J11" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K11" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L11" t="n">
         <v>1.36</v>
@@ -1766,73 +1766,73 @@
         <v>3</v>
       </c>
       <c r="N11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P11" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S11" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T11" t="n">
         <v>8.5</v>
       </c>
       <c r="U11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA11" t="n">
         <v>6.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC11" t="n">
         <v>51</v>
       </c>
       <c r="AD11" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AE11" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -1888,10 +1888,10 @@
         <v>4.33</v>
       </c>
       <c r="N12" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O12" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P12" t="n">
         <v>1.33</v>
@@ -1989,67 +1989,67 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="J13" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L13" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M13" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O13" t="n">
         <v>2</v>
       </c>
       <c r="P13" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R13" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S13" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="U13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y13" t="n">
         <v>29</v>
       </c>
       <c r="Z13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB13" t="n">
         <v>12</v>
@@ -2064,19 +2064,19 @@
         <v>9.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH13" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AJ13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
@@ -2111,25 +2111,21 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K14" t="n">
-        <v>34</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1.03</v>
       </c>
       <c r="M14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N14" t="n">
         <v>1.13</v>
@@ -2156,7 +2152,7 @@
         <v>17</v>
       </c>
       <c r="V14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W14" t="n">
         <v>15</v>
@@ -2174,7 +2170,7 @@
         <v>21</v>
       </c>
       <c r="AB14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC14" t="n">
         <v>29</v>
@@ -2183,22 +2179,22 @@
         <v>67</v>
       </c>
       <c r="AE14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AF14" t="n">
         <v>51</v>
       </c>
       <c r="AG14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH14" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI14" t="n">
         <v>41</v>
       </c>
       <c r="AJ14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -2356,82 +2352,82 @@
         <v>2.45</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J16" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T16" t="n">
         <v>6</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="M16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T16" t="n">
-        <v>5.5</v>
       </c>
       <c r="U16" t="n">
         <v>10</v>
       </c>
       <c r="V16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W16" t="n">
         <v>23</v>
       </c>
       <c r="X16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y16" t="n">
         <v>41</v>
       </c>
       <c r="Z16" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA16" t="n">
         <v>6</v>
       </c>
       <c r="AB16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC16" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD16" t="n">
         <v>101</v>
       </c>
       <c r="AE16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF16" t="n">
         <v>13</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH16" t="n">
         <v>34</v>
@@ -2440,7 +2436,7 @@
         <v>34</v>
       </c>
       <c r="AJ16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17">
@@ -2496,10 +2492,10 @@
         <v>3.5</v>
       </c>
       <c r="N17" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="P17" t="n">
         <v>1.4</v>
@@ -2556,7 +2552,7 @@
         <v>12</v>
       </c>
       <c r="AH17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI17" t="n">
         <v>29</v>
@@ -2597,19 +2593,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H18" t="n">
         <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="J18" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L18" t="n">
         <v>1.5</v>
@@ -2630,22 +2626,22 @@
         <v>2.25</v>
       </c>
       <c r="R18" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S18" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V18" t="n">
         <v>12</v>
       </c>
       <c r="W18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X18" t="n">
         <v>29</v>
@@ -2669,19 +2665,19 @@
         <v>501</v>
       </c>
       <c r="AE18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ18" t="n">
         <v>41</v>
@@ -2719,13 +2715,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="H19" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I19" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J19" t="n">
         <v>1.05</v>
@@ -2740,10 +2736,10 @@
         <v>3.5</v>
       </c>
       <c r="N19" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O19" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P19" t="n">
         <v>1.4</v>
@@ -2758,7 +2754,7 @@
         <v>1.95</v>
       </c>
       <c r="T19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U19" t="n">
         <v>8.5</v>
@@ -2767,7 +2763,7 @@
         <v>8.5</v>
       </c>
       <c r="W19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X19" t="n">
         <v>15</v>
@@ -2794,13 +2790,13 @@
         <v>12</v>
       </c>
       <c r="AF19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI19" t="n">
         <v>34</v>
@@ -2841,19 +2837,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H20" t="n">
         <v>3.1</v>
       </c>
       <c r="I20" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J20" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L20" t="n">
         <v>1.36</v>
@@ -2862,10 +2858,10 @@
         <v>3</v>
       </c>
       <c r="N20" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O20" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P20" t="n">
         <v>1.44</v>
@@ -2874,10 +2870,10 @@
         <v>2.63</v>
       </c>
       <c r="R20" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S20" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T20" t="n">
         <v>8</v>
@@ -2886,10 +2882,10 @@
         <v>13</v>
       </c>
       <c r="V20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X20" t="n">
         <v>23</v>
@@ -2919,10 +2915,10 @@
         <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI20" t="n">
         <v>23</v>
@@ -2963,13 +2959,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H21" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="J21" t="n">
         <v>1.06</v>
@@ -2978,34 +2974,34 @@
         <v>10</v>
       </c>
       <c r="L21" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M21" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N21" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="P21" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R21" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S21" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T21" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="U21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V21" t="n">
         <v>9.5</v>
@@ -3020,10 +3016,10 @@
         <v>29</v>
       </c>
       <c r="Z21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB21" t="n">
         <v>15</v>
@@ -3032,25 +3028,25 @@
         <v>51</v>
       </c>
       <c r="AD21" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG21" t="n">
         <v>11</v>
       </c>
       <c r="AH21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -3088,7 +3084,7 @@
         <v>2.05</v>
       </c>
       <c r="H22" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
         <v>3.5</v>
@@ -3097,7 +3093,7 @@
         <v>1.06</v>
       </c>
       <c r="K22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L22" t="n">
         <v>1.33</v>
@@ -3127,13 +3123,13 @@
         <v>7</v>
       </c>
       <c r="U22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V22" t="n">
         <v>9</v>
       </c>
       <c r="W22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X22" t="n">
         <v>17</v>
@@ -3148,7 +3144,7 @@
         <v>6.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC22" t="n">
         <v>51</v>
@@ -3157,13 +3153,13 @@
         <v>301</v>
       </c>
       <c r="AE22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH22" t="n">
         <v>41</v>
@@ -3276,7 +3272,7 @@
         <v>81</v>
       </c>
       <c r="AD23" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE23" t="n">
         <v>7.5</v>
@@ -3451,79 +3447,79 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H25" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J25" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K25" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="N25" t="n">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="O25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S25" t="n">
         <v>1.7</v>
       </c>
-      <c r="P25" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.8</v>
-      </c>
       <c r="T25" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W25" t="n">
         <v>17</v>
       </c>
       <c r="X25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z25" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA25" t="n">
         <v>6.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC25" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD25" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="AE25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF25" t="n">
         <v>19</v>
@@ -3573,13 +3569,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="H26" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="I26" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J26" t="n">
         <v>1.02</v>
@@ -3606,43 +3602,43 @@
         <v>4</v>
       </c>
       <c r="R26" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="S26" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="T26" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U26" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W26" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X26" t="n">
         <v>11</v>
       </c>
       <c r="Y26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA26" t="n">
         <v>15</v>
       </c>
       <c r="AB26" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AC26" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AD26" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AE26" t="n">
         <v>34</v>
@@ -3651,16 +3647,16 @@
         <v>67</v>
       </c>
       <c r="AG26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AH26" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AI26" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AJ26" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27">
@@ -3695,46 +3691,46 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H27" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I27" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="J27" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="K27" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="L27" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="M27" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="N27" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="O27" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="P27" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R27" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S27" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U27" t="n">
         <v>19</v>
@@ -3752,7 +3748,7 @@
         <v>41</v>
       </c>
       <c r="Z27" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA27" t="n">
         <v>6.5</v>
@@ -3767,7 +3763,7 @@
         <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF27" t="n">
         <v>8.5</v>
@@ -3776,10 +3772,10 @@
         <v>9.5</v>
       </c>
       <c r="AH27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI27" t="n">
         <v>17</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>19</v>
       </c>
       <c r="AJ27" t="n">
         <v>34</v>
@@ -3817,13 +3813,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H28" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I28" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J28" t="n">
         <v>1.04</v>
@@ -3838,10 +3834,10 @@
         <v>3.75</v>
       </c>
       <c r="N28" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O28" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P28" t="n">
         <v>1.36</v>
@@ -3868,7 +3864,7 @@
         <v>21</v>
       </c>
       <c r="X28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y28" t="n">
         <v>26</v>
@@ -3877,7 +3873,7 @@
         <v>13</v>
       </c>
       <c r="AA28" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB28" t="n">
         <v>15</v>
@@ -4082,10 +4078,10 @@
         <v>3.5</v>
       </c>
       <c r="N30" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O30" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="P30" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-02.xlsx
@@ -647,76 +647,76 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J2" t="n">
         <v>1.03</v>
       </c>
       <c r="K2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L2" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N2" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="O2" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="P2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S2" t="n">
         <v>1.8</v>
       </c>
-      <c r="S2" t="n">
-        <v>1.95</v>
-      </c>
       <c r="T2" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="U2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V2" t="n">
         <v>9.5</v>
       </c>
       <c r="W2" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
         <v>11</v>
       </c>
       <c r="AB2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD2" t="n">
-        <v>301</v>
+        <v>451</v>
       </c>
       <c r="AE2" t="n">
         <v>21</v>
@@ -725,13 +725,13 @@
         <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AH2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ2" t="n">
         <v>51</v>
@@ -772,10 +772,10 @@
         <v>2.15</v>
       </c>
       <c r="H3" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J3" t="n">
         <v>1.04</v>
@@ -784,16 +784,16 @@
         <v>13</v>
       </c>
       <c r="L3" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N3" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="O3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="P3" t="n">
         <v>1.33</v>
@@ -802,10 +802,10 @@
         <v>3.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T3" t="n">
         <v>11</v>
@@ -823,16 +823,16 @@
         <v>17</v>
       </c>
       <c r="Y3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB3" t="n">
         <v>15</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>13</v>
       </c>
       <c r="AC3" t="n">
         <v>41</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="I4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J4" t="n">
         <v>1.02</v>
@@ -912,7 +912,7 @@
         <v>6</v>
       </c>
       <c r="N4" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="O4" t="n">
         <v>3</v>
@@ -933,52 +933,52 @@
         <v>11</v>
       </c>
       <c r="U4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V4" t="n">
         <v>11</v>
       </c>
       <c r="W4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="n">
         <v>29</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>401</v>
+      </c>
+      <c r="AE4" t="n">
         <v>34</v>
       </c>
-      <c r="AC4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>451</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>29</v>
-      </c>
       <c r="AF4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AI4" t="n">
         <v>81</v>
       </c>
       <c r="AJ4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1013,7 +1013,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="H5" t="n">
         <v>4.5</v>
@@ -1034,10 +1034,10 @@
         <v>5.5</v>
       </c>
       <c r="N5" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="O5" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="P5" t="n">
         <v>1.25</v>
@@ -1138,10 +1138,10 @@
         <v>5.75</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I6" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="J6" t="n">
         <v>1.04</v>
@@ -1150,16 +1150,16 @@
         <v>13</v>
       </c>
       <c r="L6" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M6" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="O6" t="n">
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="P6" t="n">
         <v>1.33</v>
@@ -1174,7 +1174,7 @@
         <v>1.95</v>
       </c>
       <c r="T6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="U6" t="n">
         <v>34</v>
@@ -1192,13 +1192,13 @@
         <v>41</v>
       </c>
       <c r="Z6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA6" t="n">
         <v>8.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="n">
         <v>51</v>
@@ -1207,7 +1207,7 @@
         <v>301</v>
       </c>
       <c r="AE6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF6" t="n">
         <v>8.5</v>
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H7" t="n">
         <v>4.33</v>
@@ -1278,28 +1278,28 @@
         <v>3.75</v>
       </c>
       <c r="N7" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O7" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="P7" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T7" t="n">
         <v>7</v>
       </c>
       <c r="U7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V7" t="n">
         <v>9.5</v>
@@ -1332,7 +1332,7 @@
         <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG7" t="n">
         <v>21</v>
@@ -1379,31 +1379,31 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="H8" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I8" t="n">
         <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L8" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="O8" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="P8" t="n">
         <v>1.36</v>
@@ -1427,19 +1427,19 @@
         <v>8.5</v>
       </c>
       <c r="W8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
         <v>29</v>
       </c>
       <c r="Z8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB8" t="n">
         <v>21</v>
@@ -1745,13 +1745,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H11" t="n">
         <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="J11" t="n">
         <v>1.07</v>
@@ -1778,25 +1778,25 @@
         <v>2.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U11" t="n">
         <v>17</v>
       </c>
       <c r="V11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W11" t="n">
         <v>41</v>
       </c>
       <c r="X11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y11" t="n">
         <v>41</v>
@@ -1811,7 +1811,7 @@
         <v>17</v>
       </c>
       <c r="AC11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD11" t="n">
         <v>401</v>
@@ -1820,13 +1820,13 @@
         <v>6.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG11" t="n">
         <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
         <v>19</v>
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="J12" t="n">
         <v>1.04</v>
@@ -1906,19 +1906,19 @@
         <v>2.25</v>
       </c>
       <c r="T12" t="n">
+        <v>12</v>
+      </c>
+      <c r="U12" t="n">
+        <v>17</v>
+      </c>
+      <c r="V12" t="n">
         <v>11</v>
       </c>
-      <c r="U12" t="n">
-        <v>15</v>
-      </c>
-      <c r="V12" t="n">
-        <v>10</v>
-      </c>
       <c r="W12" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="X12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
         <v>26</v>
@@ -1927,7 +1927,7 @@
         <v>13</v>
       </c>
       <c r="AA12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB12" t="n">
         <v>12</v>
@@ -1936,25 +1936,25 @@
         <v>41</v>
       </c>
       <c r="AD12" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF12" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH12" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -1989,31 +1989,31 @@
         </is>
       </c>
       <c r="G13" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H13" t="n">
         <v>3.2</v>
       </c>
-      <c r="H13" t="n">
-        <v>3.3</v>
-      </c>
       <c r="I13" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L13" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N13" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P13" t="n">
         <v>1.36</v>
@@ -2022,34 +2022,34 @@
         <v>3</v>
       </c>
       <c r="R13" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
         <v>29</v>
       </c>
       <c r="Z13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB13" t="n">
         <v>12</v>
@@ -2064,19 +2064,19 @@
         <v>9.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
@@ -2111,54 +2111,58 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="H14" t="n">
+        <v>7</v>
+      </c>
+      <c r="I14" t="n">
         <v>7.5</v>
       </c>
-      <c r="I14" t="n">
-        <v>8</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K14" t="n">
+        <v>34</v>
+      </c>
       <c r="L14" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="M14" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N14" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="O14" t="n">
+        <v>5</v>
+      </c>
+      <c r="P14" t="n">
         <v>1.13</v>
       </c>
-      <c r="O14" t="n">
+      <c r="Q14" t="n">
         <v>6</v>
       </c>
-      <c r="P14" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>7</v>
-      </c>
       <c r="R14" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S14" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T14" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="U14" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="V14" t="n">
+        <v>11</v>
+      </c>
+      <c r="W14" t="n">
         <v>13</v>
       </c>
-      <c r="W14" t="n">
-        <v>15</v>
-      </c>
       <c r="X14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y14" t="n">
         <v>15</v>
@@ -2167,28 +2171,28 @@
         <v>34</v>
       </c>
       <c r="AA14" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD14" t="n">
         <v>67</v>
       </c>
       <c r="AE14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AF14" t="n">
         <v>51</v>
       </c>
       <c r="AG14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH14" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="n">
         <v>41</v>
@@ -2229,7 +2233,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
@@ -2262,22 +2266,22 @@
         <v>2.2</v>
       </c>
       <c r="R15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S15" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T15" t="n">
         <v>5.5</v>
       </c>
       <c r="U15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V15" t="n">
         <v>10</v>
       </c>
       <c r="W15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X15" t="n">
         <v>21</v>
@@ -2292,7 +2296,7 @@
         <v>6</v>
       </c>
       <c r="AB15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC15" t="n">
         <v>81</v>
@@ -3569,37 +3573,37 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="H26" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="I26" t="n">
         <v>13</v>
       </c>
       <c r="J26" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K26" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L26" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="M26" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N26" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="O26" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="P26" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="R26" t="n">
         <v>2</v>
@@ -3608,37 +3612,37 @@
         <v>1.75</v>
       </c>
       <c r="T26" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U26" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V26" t="n">
         <v>10</v>
       </c>
       <c r="W26" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X26" t="n">
         <v>11</v>
       </c>
       <c r="Y26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA26" t="n">
         <v>15</v>
       </c>
       <c r="AB26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC26" t="n">
         <v>67</v>
       </c>
       <c r="AD26" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE26" t="n">
         <v>34</v>
@@ -3700,10 +3704,10 @@
         <v>1.9</v>
       </c>
       <c r="J27" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L27" t="n">
         <v>1.36</v>
@@ -3828,16 +3832,16 @@
         <v>9</v>
       </c>
       <c r="L28" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M28" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N28" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O28" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="P28" t="n">
         <v>1.36</v>
@@ -3935,13 +3939,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H29" t="n">
         <v>4.2</v>
       </c>
       <c r="I29" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
         <v>1.04</v>
@@ -3950,70 +3954,70 @@
         <v>13</v>
       </c>
       <c r="L29" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M29" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N29" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="O29" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="P29" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q29" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R29" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S29" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T29" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U29" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V29" t="n">
         <v>8.5</v>
       </c>
       <c r="W29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X29" t="n">
         <v>13</v>
       </c>
       <c r="Y29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA29" t="n">
         <v>8</v>
       </c>
       <c r="AB29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC29" t="n">
         <v>51</v>
       </c>
       <c r="AD29" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF29" t="n">
         <v>26</v>
       </c>
       <c r="AG29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH29" t="n">
         <v>51</v>
@@ -4063,13 +4067,13 @@
         <v>3.4</v>
       </c>
       <c r="I30" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J30" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L30" t="n">
         <v>1.29</v>
@@ -4078,10 +4082,10 @@
         <v>3.5</v>
       </c>
       <c r="N30" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="O30" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="P30" t="n">
         <v>1.4</v>
@@ -4099,13 +4103,13 @@
         <v>8</v>
       </c>
       <c r="U30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V30" t="n">
         <v>9</v>
       </c>
       <c r="W30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X30" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-02.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="H2" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="J2" t="n">
         <v>1.03</v>
@@ -680,22 +680,22 @@
         <v>3.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S2" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V2" t="n">
         <v>9.5</v>
       </c>
       <c r="W2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X2" t="n">
         <v>13</v>
@@ -704,34 +704,34 @@
         <v>29</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
         <v>11</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="n">
         <v>67</v>
       </c>
       <c r="AD2" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AH2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ2" t="n">
         <v>51</v>
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J3" t="n">
         <v>1.04</v>
@@ -784,10 +784,10 @@
         <v>13</v>
       </c>
       <c r="L3" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N3" t="n">
         <v>1.73</v>
@@ -808,7 +808,7 @@
         <v>2.2</v>
       </c>
       <c r="T3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U3" t="n">
         <v>13</v>
@@ -820,7 +820,7 @@
         <v>23</v>
       </c>
       <c r="X3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
         <v>26</v>
@@ -832,13 +832,13 @@
         <v>7.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC3" t="n">
         <v>41</v>
       </c>
       <c r="AD3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE3" t="n">
         <v>13</v>
@@ -850,7 +850,7 @@
         <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI3" t="n">
         <v>26</v>
@@ -891,37 +891,37 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="H4" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="I4" t="n">
         <v>11</v>
       </c>
       <c r="J4" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N4" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P4" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="R4" t="n">
         <v>1.95</v>
@@ -939,7 +939,7 @@
         <v>11</v>
       </c>
       <c r="W4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X4" t="n">
         <v>11</v>
@@ -948,19 +948,19 @@
         <v>29</v>
       </c>
       <c r="Z4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="n">
         <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD4" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE4" t="n">
         <v>34</v>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="H5" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="n">
         <v>1.02</v>
@@ -1034,10 +1034,10 @@
         <v>5.5</v>
       </c>
       <c r="N5" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="O5" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="P5" t="n">
         <v>1.25</v>
@@ -1073,10 +1073,10 @@
         <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC5" t="n">
         <v>41</v>
@@ -1085,7 +1085,7 @@
         <v>126</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
         <v>29</v>
@@ -1097,7 +1097,7 @@
         <v>51</v>
       </c>
       <c r="AI5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
         <v>29</v>
@@ -1135,19 +1135,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="H6" t="n">
         <v>4.1</v>
       </c>
       <c r="I6" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="J6" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L6" t="n">
         <v>1.25</v>
@@ -1156,22 +1156,22 @@
         <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>1.76</v>
+        <v>1.86</v>
       </c>
       <c r="O6" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="P6" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R6" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S6" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T6" t="n">
         <v>17</v>
@@ -1180,16 +1180,16 @@
         <v>34</v>
       </c>
       <c r="V6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="W6" t="n">
         <v>67</v>
       </c>
       <c r="X6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Y6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z6" t="n">
         <v>12</v>
@@ -1204,25 +1204,25 @@
         <v>51</v>
       </c>
       <c r="AD6" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE6" t="n">
         <v>8</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG6" t="n">
         <v>9</v>
       </c>
       <c r="AH6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="H7" t="n">
         <v>4.33</v>
       </c>
       <c r="I7" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J7" t="n">
         <v>1.05</v>
@@ -1278,10 +1278,10 @@
         <v>3.75</v>
       </c>
       <c r="N7" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O7" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="P7" t="n">
         <v>1.36</v>
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="H8" t="n">
         <v>4.5</v>
@@ -1388,22 +1388,22 @@
         <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L8" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M8" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N8" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O8" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P8" t="n">
         <v>1.36</v>
@@ -3585,52 +3585,52 @@
         <v>1.01</v>
       </c>
       <c r="K26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L26" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="M26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="N26" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="O26" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="P26" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="Q26" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="R26" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S26" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T26" t="n">
         <v>10</v>
       </c>
       <c r="U26" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W26" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X26" t="n">
         <v>11</v>
       </c>
       <c r="Y26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA26" t="n">
         <v>15</v>
@@ -3642,7 +3642,7 @@
         <v>67</v>
       </c>
       <c r="AD26" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE26" t="n">
         <v>34</v>
@@ -3695,13 +3695,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H27" t="n">
         <v>3.3</v>
       </c>
       <c r="I27" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J27" t="n">
         <v>1.07</v>
@@ -3710,10 +3710,10 @@
         <v>7.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N27" t="n">
         <v>2.2</v>
@@ -3734,13 +3734,13 @@
         <v>1.73</v>
       </c>
       <c r="T27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U27" t="n">
         <v>19</v>
       </c>
       <c r="V27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W27" t="n">
         <v>41</v>
@@ -3776,10 +3776,10 @@
         <v>9.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ27" t="n">
         <v>34</v>
@@ -3820,16 +3820,16 @@
         <v>2.25</v>
       </c>
       <c r="H28" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I28" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J28" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L28" t="n">
         <v>1.22</v>
@@ -3838,16 +3838,16 @@
         <v>4</v>
       </c>
       <c r="N28" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O28" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P28" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q28" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R28" t="n">
         <v>1.67</v>
@@ -3856,7 +3856,7 @@
         <v>2.1</v>
       </c>
       <c r="T28" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U28" t="n">
         <v>12</v>
@@ -3868,7 +3868,7 @@
         <v>21</v>
       </c>
       <c r="X28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y28" t="n">
         <v>26</v>
@@ -3877,7 +3877,7 @@
         <v>13</v>
       </c>
       <c r="AA28" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB28" t="n">
         <v>15</v>
@@ -3895,7 +3895,7 @@
         <v>15</v>
       </c>
       <c r="AG28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH28" t="n">
         <v>29</v>
@@ -3904,7 +3904,7 @@
         <v>21</v>
       </c>
       <c r="AJ28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
@@ -3939,19 +3939,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H29" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I29" t="n">
         <v>5</v>
       </c>
       <c r="J29" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L29" t="n">
         <v>1.22</v>
@@ -3960,10 +3960,10 @@
         <v>4</v>
       </c>
       <c r="N29" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O29" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P29" t="n">
         <v>1.33</v>
@@ -3990,7 +3990,7 @@
         <v>12</v>
       </c>
       <c r="X29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y29" t="n">
         <v>23</v>
@@ -4014,10 +4014,10 @@
         <v>15</v>
       </c>
       <c r="AF29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH29" t="n">
         <v>51</v>
@@ -4061,19 +4061,19 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H30" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I30" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J30" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L30" t="n">
         <v>1.29</v>
@@ -4082,28 +4082,28 @@
         <v>3.5</v>
       </c>
       <c r="N30" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O30" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="P30" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R30" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S30" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T30" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V30" t="n">
         <v>9</v>
@@ -4115,25 +4115,25 @@
         <v>17</v>
       </c>
       <c r="Y30" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA30" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD30" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF30" t="n">
         <v>17</v>
@@ -4148,7 +4148,7 @@
         <v>26</v>
       </c>
       <c r="AJ30" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-02.xlsx
@@ -653,7 +653,7 @@
         <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="J2" t="n">
         <v>1.03</v>
@@ -668,10 +668,10 @@
         <v>4.5</v>
       </c>
       <c r="N2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O2" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P2" t="n">
         <v>1.3</v>
@@ -698,7 +698,7 @@
         <v>10</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
         <v>29</v>
@@ -707,7 +707,7 @@
         <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB2" t="n">
         <v>21</v>
@@ -716,19 +716,19 @@
         <v>67</v>
       </c>
       <c r="AD2" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI2" t="n">
         <v>51</v>
@@ -769,19 +769,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L3" t="n">
         <v>1.25</v>
@@ -790,22 +790,22 @@
         <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="O3" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S3" t="n">
         <v>2.1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.2</v>
       </c>
       <c r="T3" t="n">
         <v>10</v>
@@ -817,22 +817,22 @@
         <v>10</v>
       </c>
       <c r="W3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC3" t="n">
         <v>41</v>
@@ -841,10 +841,10 @@
         <v>201</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG3" t="n">
         <v>12</v>
@@ -856,7 +856,7 @@
         <v>26</v>
       </c>
       <c r="AJ3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="H4" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
         <v>1.01</v>
@@ -924,46 +924,46 @@
         <v>4.33</v>
       </c>
       <c r="R4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S4" t="n">
         <v>1.95</v>
       </c>
-      <c r="S4" t="n">
-        <v>1.8</v>
-      </c>
       <c r="T4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X4" t="n">
         <v>11</v>
       </c>
       <c r="Y4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z4" t="n">
         <v>23</v>
       </c>
       <c r="AA4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD4" t="n">
-        <v>451</v>
+        <v>301</v>
       </c>
       <c r="AE4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF4" t="n">
         <v>67</v>
@@ -1013,55 +1013,55 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="H5" t="n">
         <v>4.2</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="J5" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L5" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N5" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="O5" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="P5" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="S5" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X5" t="n">
         <v>13</v>
@@ -1070,37 +1070,37 @@
         <v>21</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC5" t="n">
         <v>41</v>
       </c>
       <c r="AD5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>29</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
         <v>51</v>
       </c>
       <c r="AI5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -1135,19 +1135,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="H6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="J6" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L6" t="n">
         <v>1.25</v>
@@ -1156,10 +1156,10 @@
         <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="O6" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
         <v>1.36</v>
@@ -1168,10 +1168,10 @@
         <v>3</v>
       </c>
       <c r="R6" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S6" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T6" t="n">
         <v>17</v>
@@ -1180,16 +1180,16 @@
         <v>34</v>
       </c>
       <c r="V6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="W6" t="n">
         <v>67</v>
       </c>
       <c r="X6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Y6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z6" t="n">
         <v>12</v>
@@ -1204,19 +1204,19 @@
         <v>51</v>
       </c>
       <c r="AD6" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE6" t="n">
         <v>8</v>
       </c>
       <c r="AF6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG6" t="n">
         <v>9</v>
       </c>
       <c r="AH6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI6" t="n">
         <v>15</v>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H7" t="n">
         <v>4.33</v>
       </c>
       <c r="I7" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J7" t="n">
         <v>1.05</v>
@@ -1272,16 +1272,16 @@
         <v>11</v>
       </c>
       <c r="L7" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N7" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="O7" t="n">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="P7" t="n">
         <v>1.36</v>
@@ -1290,13 +1290,13 @@
         <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S7" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U7" t="n">
         <v>7.5</v>
@@ -1308,31 +1308,31 @@
         <v>11</v>
       </c>
       <c r="X7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA7" t="n">
         <v>9</v>
       </c>
       <c r="AB7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD7" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE7" t="n">
         <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG7" t="n">
         <v>21</v>
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="H8" t="n">
         <v>4.5</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J8" t="n">
         <v>1.04</v>
@@ -1412,25 +1412,25 @@
         <v>3</v>
       </c>
       <c r="R8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S8" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T8" t="n">
         <v>6.5</v>
       </c>
       <c r="U8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V8" t="n">
         <v>8.5</v>
       </c>
       <c r="W8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
         <v>29</v>
@@ -1439,7 +1439,7 @@
         <v>11</v>
       </c>
       <c r="AA8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB8" t="n">
         <v>21</v>
@@ -1448,13 +1448,13 @@
         <v>67</v>
       </c>
       <c r="AD8" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG8" t="n">
         <v>21</v>
@@ -2233,49 +2233,49 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I15" t="n">
         <v>3.8</v>
       </c>
       <c r="J15" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K15" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L15" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="M15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R15" t="n">
         <v>2.38</v>
       </c>
-      <c r="N15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2.2</v>
-      </c>
       <c r="S15" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="T15" t="n">
         <v>5.5</v>
       </c>
       <c r="U15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V15" t="n">
         <v>10</v>
@@ -2284,26 +2284,26 @@
         <v>21</v>
       </c>
       <c r="X15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y15" t="n">
         <v>41</v>
       </c>
       <c r="Z15" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA15" t="n">
         <v>6</v>
       </c>
       <c r="AB15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC15" t="n">
         <v>81</v>
       </c>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF15" t="n">
         <v>17</v>
@@ -3576,7 +3576,7 @@
         <v>1.17</v>
       </c>
       <c r="H26" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="I26" t="n">
         <v>13</v>
@@ -3606,16 +3606,16 @@
         <v>4</v>
       </c>
       <c r="R26" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S26" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V26" t="n">
         <v>11</v>
@@ -3633,19 +3633,19 @@
         <v>21</v>
       </c>
       <c r="AA26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB26" t="n">
         <v>29</v>
       </c>
       <c r="AC26" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD26" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AE26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF26" t="n">
         <v>67</v>
@@ -3695,19 +3695,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H27" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I27" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K27" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L27" t="n">
         <v>1.4</v>
@@ -3716,10 +3716,10 @@
         <v>2.75</v>
       </c>
       <c r="N27" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O27" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="P27" t="n">
         <v>1.5</v>
@@ -3734,10 +3734,10 @@
         <v>1.73</v>
       </c>
       <c r="T27" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V27" t="n">
         <v>13</v>
@@ -3758,7 +3758,7 @@
         <v>6.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC27" t="n">
         <v>67</v>
@@ -3770,7 +3770,7 @@
         <v>6.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG27" t="n">
         <v>9.5</v>
@@ -3817,19 +3817,19 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H28" t="n">
         <v>3.75</v>
       </c>
       <c r="I28" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J28" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K28" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L28" t="n">
         <v>1.22</v>
@@ -3838,10 +3838,10 @@
         <v>4</v>
       </c>
       <c r="N28" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O28" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P28" t="n">
         <v>1.33</v>
@@ -3850,16 +3850,16 @@
         <v>3.25</v>
       </c>
       <c r="R28" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S28" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T28" t="n">
         <v>9.5</v>
       </c>
       <c r="U28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V28" t="n">
         <v>9.5</v>
@@ -3868,10 +3868,10 @@
         <v>21</v>
       </c>
       <c r="X28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y28" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z28" t="n">
         <v>13</v>
@@ -3880,7 +3880,7 @@
         <v>7.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC28" t="n">
         <v>41</v>
@@ -3898,7 +3898,7 @@
         <v>10</v>
       </c>
       <c r="AH28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI28" t="n">
         <v>21</v>
@@ -3960,10 +3960,10 @@
         <v>4</v>
       </c>
       <c r="N29" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O29" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P29" t="n">
         <v>1.33</v>
@@ -3978,7 +3978,7 @@
         <v>1.91</v>
       </c>
       <c r="T29" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U29" t="n">
         <v>8</v>
@@ -3999,7 +3999,7 @@
         <v>13</v>
       </c>
       <c r="AA29" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB29" t="n">
         <v>17</v>
@@ -4008,7 +4008,7 @@
         <v>51</v>
       </c>
       <c r="AD29" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE29" t="n">
         <v>15</v>
@@ -4061,31 +4061,31 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I30" t="n">
         <v>3.5</v>
       </c>
-      <c r="I30" t="n">
-        <v>3.3</v>
-      </c>
       <c r="J30" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L30" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M30" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N30" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="O30" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="P30" t="n">
         <v>1.36</v>
@@ -4103,16 +4103,16 @@
         <v>8.5</v>
       </c>
       <c r="U30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V30" t="n">
         <v>9</v>
       </c>
       <c r="W30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y30" t="n">
         <v>23</v>
@@ -4133,22 +4133,22 @@
         <v>151</v>
       </c>
       <c r="AE30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG30" t="n">
         <v>12</v>
       </c>
       <c r="AH30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI30" t="n">
         <v>26</v>
       </c>
       <c r="AJ30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ30"/>
+  <dimension ref="A1:AS34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,137 +481,182 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Odd_H_HT</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_D_HT</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_A_HT</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Odd_Over05_FT</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under05_FT</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Odd_Over15_FT</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under15_FT</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Odd_Over25_FT</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under25_FT</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over3_FT</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under3_FT</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over35_FT</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under35_FT</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Odd_Over05_HT</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under05_HT</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Odd_BTTS_Yes</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Odd_BTTS_No</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-0</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-0</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-1</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-0</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-1</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-2</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-0</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-1</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-2</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-3</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_4-4</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over2_FT</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under2_FT</t>
         </is>
       </c>
     </row>
@@ -656,86 +701,109 @@
         <v>7.5</v>
       </c>
       <c r="J2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>7</v>
+      </c>
+      <c r="M2" t="n">
         <v>1.03</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>15</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>1.2</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>4.5</v>
       </c>
-      <c r="N2" t="n">
+      <c r="Q2" t="n">
         <v>1.62</v>
       </c>
-      <c r="O2" t="n">
+      <c r="R2" t="n">
         <v>2.3</v>
       </c>
-      <c r="P2" t="n">
+      <c r="S2" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W2" t="n">
         <v>1.3</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="X2" t="n">
         <v>3.4</v>
       </c>
-      <c r="R2" t="n">
+      <c r="Y2" t="n">
         <v>1.91</v>
       </c>
-      <c r="S2" t="n">
+      <c r="Z2" t="n">
         <v>1.91</v>
       </c>
-      <c r="T2" t="n">
+      <c r="AA2" t="n">
         <v>8.5</v>
       </c>
-      <c r="U2" t="n">
+      <c r="AB2" t="n">
         <v>7.5</v>
       </c>
-      <c r="V2" t="n">
+      <c r="AC2" t="n">
         <v>9.5</v>
       </c>
-      <c r="W2" t="n">
+      <c r="AD2" t="n">
         <v>10</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AE2" t="n">
         <v>12</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AF2" t="n">
         <v>29</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AG2" t="n">
         <v>15</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AH2" t="n">
         <v>10</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AI2" t="n">
         <v>21</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AJ2" t="n">
         <v>67</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AK2" t="n">
         <v>351</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AL2" t="n">
         <v>21</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AM2" t="n">
         <v>41</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AN2" t="n">
         <v>23</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AO2" t="n">
         <v>101</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AP2" t="n">
         <v>51</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AQ2" t="n">
         <v>51</v>
       </c>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -778,86 +846,109 @@
         <v>3</v>
       </c>
       <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M3" t="n">
         <v>1.05</v>
       </c>
-      <c r="K3" t="n">
+      <c r="N3" t="n">
         <v>11</v>
       </c>
-      <c r="L3" t="n">
+      <c r="O3" t="n">
         <v>1.25</v>
       </c>
-      <c r="M3" t="n">
+      <c r="P3" t="n">
         <v>4</v>
       </c>
-      <c r="N3" t="n">
+      <c r="Q3" t="n">
         <v>1.88</v>
       </c>
-      <c r="O3" t="n">
+      <c r="R3" t="n">
         <v>2.02</v>
       </c>
-      <c r="P3" t="n">
+      <c r="S3" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.36</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="W3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X3" t="n">
         <v>3</v>
       </c>
-      <c r="R3" t="n">
+      <c r="Y3" t="n">
         <v>1.67</v>
       </c>
-      <c r="S3" t="n">
+      <c r="Z3" t="n">
         <v>2.1</v>
       </c>
-      <c r="T3" t="n">
+      <c r="AA3" t="n">
         <v>10</v>
       </c>
-      <c r="U3" t="n">
+      <c r="AB3" t="n">
         <v>13</v>
       </c>
-      <c r="V3" t="n">
+      <c r="AC3" t="n">
         <v>10</v>
       </c>
-      <c r="W3" t="n">
+      <c r="AD3" t="n">
         <v>26</v>
       </c>
-      <c r="X3" t="n">
+      <c r="AE3" t="n">
         <v>21</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AF3" t="n">
         <v>29</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>17</v>
       </c>
       <c r="AG3" t="n">
         <v>12</v>
       </c>
       <c r="AH3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO3" t="n">
         <v>34</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AP3" t="n">
         <v>26</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AQ3" t="n">
         <v>34</v>
       </c>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -900,86 +991,105 @@
         <v>12</v>
       </c>
       <c r="J4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9</v>
+      </c>
+      <c r="M4" t="n">
         <v>1.01</v>
       </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
         <v>23</v>
       </c>
-      <c r="L4" t="n">
+      <c r="O4" t="n">
         <v>1.11</v>
       </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>6.5</v>
       </c>
-      <c r="N4" t="n">
+      <c r="Q4" t="n">
         <v>1.36</v>
       </c>
-      <c r="O4" t="n">
+      <c r="R4" t="n">
         <v>3.2</v>
       </c>
-      <c r="P4" t="n">
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W4" t="n">
         <v>1.2</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="X4" t="n">
         <v>4.33</v>
       </c>
-      <c r="R4" t="n">
+      <c r="Y4" t="n">
         <v>1.8</v>
       </c>
-      <c r="S4" t="n">
+      <c r="Z4" t="n">
         <v>1.95</v>
       </c>
-      <c r="T4" t="n">
+      <c r="AA4" t="n">
         <v>12</v>
       </c>
-      <c r="U4" t="n">
+      <c r="AB4" t="n">
         <v>8.5</v>
       </c>
-      <c r="V4" t="n">
+      <c r="AC4" t="n">
         <v>10</v>
       </c>
-      <c r="W4" t="n">
+      <c r="AD4" t="n">
         <v>9</v>
       </c>
-      <c r="X4" t="n">
+      <c r="AE4" t="n">
         <v>11</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AF4" t="n">
         <v>26</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AG4" t="n">
         <v>23</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AH4" t="n">
         <v>15</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AI4" t="n">
         <v>26</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>301</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>81</v>
       </c>
       <c r="AJ4" t="n">
         <v>67</v>
       </c>
+      <c r="AK4" t="n">
+        <v>301</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1022,86 +1132,109 @@
         <v>4.75</v>
       </c>
       <c r="J5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M5" t="n">
         <v>1.03</v>
       </c>
-      <c r="K5" t="n">
+      <c r="N5" t="n">
         <v>17</v>
       </c>
-      <c r="L5" t="n">
+      <c r="O5" t="n">
         <v>1.17</v>
       </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>5</v>
       </c>
-      <c r="N5" t="n">
+      <c r="Q5" t="n">
         <v>1.53</v>
       </c>
-      <c r="O5" t="n">
+      <c r="R5" t="n">
         <v>2.5</v>
       </c>
-      <c r="P5" t="n">
+      <c r="S5" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W5" t="n">
         <v>1.29</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="X5" t="n">
         <v>3.5</v>
       </c>
-      <c r="R5" t="n">
+      <c r="Y5" t="n">
         <v>1.57</v>
       </c>
-      <c r="S5" t="n">
+      <c r="Z5" t="n">
         <v>2.25</v>
       </c>
-      <c r="T5" t="n">
+      <c r="AA5" t="n">
         <v>11</v>
       </c>
-      <c r="U5" t="n">
+      <c r="AB5" t="n">
         <v>11</v>
       </c>
-      <c r="V5" t="n">
+      <c r="AC5" t="n">
         <v>9</v>
       </c>
-      <c r="W5" t="n">
+      <c r="AD5" t="n">
         <v>15</v>
       </c>
-      <c r="X5" t="n">
+      <c r="AE5" t="n">
         <v>13</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AF5" t="n">
         <v>21</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>29</v>
       </c>
       <c r="AG5" t="n">
         <v>17</v>
       </c>
       <c r="AH5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO5" t="n">
         <v>51</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AP5" t="n">
         <v>41</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AQ5" t="n">
         <v>34</v>
       </c>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1144,86 +1277,105 @@
         <v>1.6</v>
       </c>
       <c r="J6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M6" t="n">
         <v>1.04</v>
       </c>
-      <c r="K6" t="n">
+      <c r="N6" t="n">
         <v>12</v>
       </c>
-      <c r="L6" t="n">
+      <c r="O6" t="n">
         <v>1.25</v>
       </c>
-      <c r="M6" t="n">
+      <c r="P6" t="n">
         <v>4</v>
       </c>
-      <c r="N6" t="n">
+      <c r="Q6" t="n">
         <v>1.8</v>
       </c>
-      <c r="O6" t="n">
+      <c r="R6" t="n">
         <v>2</v>
       </c>
-      <c r="P6" t="n">
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W6" t="n">
         <v>1.36</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="X6" t="n">
         <v>3</v>
       </c>
-      <c r="R6" t="n">
+      <c r="Y6" t="n">
         <v>1.8</v>
       </c>
-      <c r="S6" t="n">
+      <c r="Z6" t="n">
         <v>1.95</v>
       </c>
-      <c r="T6" t="n">
+      <c r="AA6" t="n">
         <v>17</v>
       </c>
-      <c r="U6" t="n">
+      <c r="AB6" t="n">
         <v>34</v>
       </c>
-      <c r="V6" t="n">
+      <c r="AC6" t="n">
         <v>19</v>
       </c>
-      <c r="W6" t="n">
+      <c r="AD6" t="n">
         <v>67</v>
       </c>
-      <c r="X6" t="n">
+      <c r="AE6" t="n">
         <v>41</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AF6" t="n">
         <v>41</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AG6" t="n">
         <v>12</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AH6" t="n">
         <v>8.5</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AI6" t="n">
         <v>19</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AJ6" t="n">
         <v>51</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AK6" t="n">
         <v>301</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AL6" t="n">
         <v>8</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AM6" t="n">
         <v>8.5</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AN6" t="n">
         <v>9</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AO6" t="n">
         <v>13</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AP6" t="n">
         <v>15</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AQ6" t="n">
         <v>29</v>
       </c>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1266,91 +1418,114 @@
         <v>6.5</v>
       </c>
       <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M7" t="n">
         <v>1.05</v>
       </c>
-      <c r="K7" t="n">
+      <c r="N7" t="n">
         <v>11</v>
       </c>
-      <c r="L7" t="n">
+      <c r="O7" t="n">
         <v>1.25</v>
       </c>
-      <c r="M7" t="n">
+      <c r="P7" t="n">
         <v>4</v>
       </c>
-      <c r="N7" t="n">
+      <c r="Q7" t="n">
         <v>1.86</v>
       </c>
-      <c r="O7" t="n">
+      <c r="R7" t="n">
         <v>2.04</v>
       </c>
-      <c r="P7" t="n">
+      <c r="S7" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.36</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="W7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X7" t="n">
         <v>3</v>
       </c>
-      <c r="R7" t="n">
+      <c r="Y7" t="n">
         <v>1.95</v>
       </c>
-      <c r="S7" t="n">
+      <c r="Z7" t="n">
         <v>1.8</v>
       </c>
-      <c r="T7" t="n">
+      <c r="AA7" t="n">
         <v>7.5</v>
       </c>
-      <c r="U7" t="n">
+      <c r="AB7" t="n">
         <v>7.5</v>
       </c>
-      <c r="V7" t="n">
+      <c r="AC7" t="n">
         <v>9.5</v>
       </c>
-      <c r="W7" t="n">
+      <c r="AD7" t="n">
         <v>11</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AE7" t="n">
         <v>13</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AF7" t="n">
         <v>29</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AG7" t="n">
         <v>12</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AH7" t="n">
         <v>9</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AI7" t="n">
         <v>21</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AJ7" t="n">
         <v>67</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AK7" t="n">
         <v>451</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AL7" t="n">
         <v>17</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AM7" t="n">
         <v>41</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AN7" t="n">
         <v>21</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AO7" t="n">
         <v>81</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AP7" t="n">
         <v>51</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AQ7" t="n">
         <v>51</v>
       </c>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MN2DqRCi</t>
+          <t>faZGsXJ0</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1360,119 +1535,142 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EREDIVISIE</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Arda</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Groningen</t>
+          <t>Cherno More</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R8" t="n">
         <v>1.4</v>
       </c>
-      <c r="H8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K8" t="n">
-        <v>13</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T8" t="n">
-        <v>6.5</v>
-      </c>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
         <v>6</v>
       </c>
       <c r="V8" t="n">
-        <v>8.5</v>
+        <v>1.13</v>
       </c>
       <c r="W8" t="n">
-        <v>9</v>
+        <v>1.62</v>
       </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>2.2</v>
       </c>
       <c r="Y8" t="n">
-        <v>29</v>
+        <v>2.25</v>
       </c>
       <c r="Z8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC8" t="n">
         <v>11</v>
       </c>
-      <c r="AA8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB8" t="n">
+      <c r="AD8" t="n">
         <v>21</v>
       </c>
-      <c r="AC8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>501</v>
-      </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
       </c>
       <c r="AG8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI8" t="n">
         <v>21</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AJ8" t="n">
         <v>81</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AK8" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>51</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>51</v>
+      <c r="AR8" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Wpjba4yJ</t>
+          <t>Moy9qgkl</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1482,119 +1680,138 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CHINA - SUPER LEAGUE</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Changchun Yatai</t>
+          <t>Botev Plovdiv</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Wuhan Three Towns</t>
+          <t>Beroe</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I9" t="n">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="J9" t="n">
-        <v>1.04</v>
+        <v>2.3</v>
       </c>
       <c r="K9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD9" t="n">
         <v>13</v>
       </c>
-      <c r="L9" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T9" t="n">
-        <v>11</v>
-      </c>
-      <c r="U9" t="n">
+      <c r="AE9" t="n">
         <v>15</v>
       </c>
-      <c r="V9" t="n">
-        <v>10</v>
-      </c>
-      <c r="W9" t="n">
-        <v>26</v>
-      </c>
-      <c r="X9" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>126</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>11</v>
-      </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>7.5</v>
       </c>
       <c r="AI9" t="n">
         <v>19</v>
       </c>
       <c r="AJ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM9" t="n">
         <v>23</v>
       </c>
+      <c r="AN9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>OvwpN7TP</t>
+          <t>t8s43EtK</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1604,119 +1821,142 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CHINA - SUPER LEAGUE</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua</t>
+          <t>CSKA Sofia</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Yunnan Yukun</t>
+          <t>Lok. Sofia</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="H10" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
+        <v>8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>7</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
+        <v>15</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC10" t="n">
         <v>8.5</v>
       </c>
-      <c r="J10" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="AD10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI10" t="n">
         <v>19</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T10" t="n">
-        <v>9</v>
-      </c>
-      <c r="U10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="V10" t="n">
-        <v>9</v>
-      </c>
-      <c r="W10" t="n">
-        <v>9</v>
-      </c>
-      <c r="X10" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>251</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>51</v>
       </c>
       <c r="AJ10" t="n">
         <v>51</v>
       </c>
+      <c r="AK10" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>rPJGHoim</t>
+          <t>Wpjba4yJ</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1726,7 +1966,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1736,109 +1976,128 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Qingdao Hainiu</t>
+          <t>Changchun Yatai</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dalian Yingbo</t>
+          <t>Wuhan Three Towns</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H11" t="n">
         <v>3.6</v>
       </c>
-      <c r="H11" t="n">
-        <v>3.5</v>
-      </c>
       <c r="I11" t="n">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="J11" t="n">
-        <v>1.07</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>8.5</v>
+        <v>2.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.36</v>
+        <v>3.1</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>2.2</v>
+        <v>13</v>
       </c>
       <c r="O11" t="n">
-        <v>1.65</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T11" t="n">
-        <v>9</v>
-      </c>
+        <v>2.1</v>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>17</v>
+        <v>2.63</v>
       </c>
       <c r="V11" t="n">
-        <v>13</v>
+        <v>1.44</v>
       </c>
       <c r="W11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>41</v>
       </c>
-      <c r="X11" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>401</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI11" t="n">
+      <c r="AK11" t="n">
+        <v>126</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP11" t="n">
         <v>19</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>34</v>
-      </c>
+      <c r="AQ11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jkNOFPLa</t>
+          <t>OvwpN7TP</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1848,7 +2107,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>08:35</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1858,109 +2117,132 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Shandong Taishan</t>
+          <t>Shanghai Shenhua</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Chengdu Rongcheng</t>
+          <t>Yunnan Yukun</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="I12" t="n">
-        <v>2.25</v>
+        <v>8.5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.04</v>
+        <v>1.73</v>
       </c>
       <c r="K12" t="n">
-        <v>13</v>
+        <v>2.63</v>
       </c>
       <c r="L12" t="n">
-        <v>1.2</v>
+        <v>7.5</v>
       </c>
       <c r="M12" t="n">
-        <v>4.33</v>
+        <v>1.02</v>
       </c>
       <c r="N12" t="n">
+        <v>19</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V12" t="n">
         <v>1.67</v>
       </c>
-      <c r="O12" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T12" t="n">
-        <v>12</v>
-      </c>
-      <c r="U12" t="n">
+      <c r="W12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG12" t="n">
         <v>17</v>
       </c>
-      <c r="V12" t="n">
+      <c r="AH12" t="n">
         <v>11</v>
       </c>
-      <c r="W12" t="n">
-        <v>34</v>
-      </c>
-      <c r="X12" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC12" t="n">
+      <c r="AI12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM12" t="n">
         <v>41</v>
       </c>
-      <c r="AD12" t="n">
-        <v>126</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ12" t="n">
+      <c r="AN12" t="n">
         <v>23</v>
       </c>
+      <c r="AO12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C4BXD3jC</t>
+          <t>rPJGHoim</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1970,7 +2252,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>08:35</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1980,109 +2262,128 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Tianjin Jinmen Tiger</t>
+          <t>Qingdao Hainiu</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Beijing Guoan</t>
+          <t>Dalian Yingbo</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X13" t="n">
         <v>2.5</v>
       </c>
-      <c r="J13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K13" t="n">
-        <v>11</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T13" t="n">
-        <v>10</v>
-      </c>
-      <c r="U13" t="n">
-        <v>15</v>
-      </c>
-      <c r="V13" t="n">
-        <v>11</v>
-      </c>
-      <c r="W13" t="n">
-        <v>29</v>
-      </c>
-      <c r="X13" t="n">
-        <v>21</v>
-      </c>
       <c r="Y13" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="Z13" t="n">
-        <v>11</v>
+        <v>1.75</v>
       </c>
       <c r="AA13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AB13" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AC13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD13" t="n">
         <v>41</v>
       </c>
-      <c r="AD13" t="n">
-        <v>151</v>
-      </c>
       <c r="AE13" t="n">
-        <v>9.5</v>
+        <v>34</v>
       </c>
       <c r="AF13" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>6.5</v>
       </c>
       <c r="AI13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>401</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP13" t="n">
         <v>19</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>26</v>
-      </c>
+      <c r="AQ13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>dfY4eezo</t>
+          <t>jkNOFPLa</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2092,7 +2393,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>08:35</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2102,109 +2403,128 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Shanghai Port</t>
+          <t>Shandong Taishan</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Meizhou Hakka</t>
+          <t>Chengdu Rongcheng</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.29</v>
+        <v>3.1</v>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>7.5</v>
+        <v>2.25</v>
       </c>
       <c r="J14" t="n">
-        <v>1.01</v>
+        <v>3.5</v>
       </c>
       <c r="K14" t="n">
-        <v>34</v>
+        <v>2.3</v>
       </c>
       <c r="L14" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M14" t="n">
         <v>1.04</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>13</v>
       </c>
-      <c r="N14" t="n">
-        <v>1.17</v>
-      </c>
       <c r="O14" t="n">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>1.13</v>
+        <v>4.33</v>
       </c>
       <c r="Q14" t="n">
-        <v>6</v>
+        <v>1.67</v>
       </c>
       <c r="R14" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3</v>
-      </c>
-      <c r="T14" t="n">
-        <v>21</v>
-      </c>
+        <v>2.15</v>
+      </c>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>13</v>
+        <v>2.63</v>
       </c>
       <c r="V14" t="n">
-        <v>11</v>
+        <v>1.44</v>
       </c>
       <c r="W14" t="n">
-        <v>13</v>
+        <v>1.33</v>
       </c>
       <c r="X14" t="n">
-        <v>10</v>
+        <v>3.25</v>
       </c>
       <c r="Y14" t="n">
-        <v>15</v>
+        <v>1.57</v>
       </c>
       <c r="Z14" t="n">
-        <v>34</v>
+        <v>2.25</v>
       </c>
       <c r="AA14" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AB14" t="n">
         <v>17</v>
       </c>
       <c r="AC14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD14" t="n">
         <v>34</v>
       </c>
-      <c r="AD14" t="n">
-        <v>67</v>
-      </c>
       <c r="AE14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>41</v>
       </c>
-      <c r="AF14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>34</v>
-      </c>
+      <c r="AK14" t="n">
+        <v>126</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>WpxJwkSP</t>
+          <t>C4BXD3jC</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2214,117 +2534,138 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>08:35</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>CHINA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Tianjin Jinmen Tiger</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Beijing Guoan</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K15" t="n">
         <v>2.2</v>
       </c>
-      <c r="H15" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="K15" t="n">
-        <v>5.5</v>
-      </c>
       <c r="L15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>11</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y15" t="n">
         <v>1.67</v>
       </c>
-      <c r="M15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="N15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="Z15" t="n">
         <v>2.1</v>
       </c>
-      <c r="R15" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="U15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="V15" t="n">
+      <c r="AA15" t="n">
         <v>10</v>
       </c>
-      <c r="W15" t="n">
+      <c r="AB15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE15" t="n">
         <v>21</v>
       </c>
-      <c r="X15" t="n">
+      <c r="AF15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO15" t="n">
         <v>23</v>
       </c>
-      <c r="Y15" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>51</v>
-      </c>
+      <c r="AP15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0CGHvbQH</t>
+          <t>dfY4eezo</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2334,119 +2675,138 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>JAPAN - J1 LEAGUE</t>
+          <t>CHINA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Shanghai Port</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>Meizhou Hakka</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.45</v>
+        <v>1.29</v>
       </c>
       <c r="H16" t="n">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="I16" t="n">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="J16" t="n">
-        <v>1.11</v>
+        <v>1.62</v>
       </c>
       <c r="K16" t="n">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="L16" t="n">
-        <v>1.53</v>
+        <v>6</v>
       </c>
       <c r="M16" t="n">
-        <v>2.38</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>2.7</v>
+        <v>34</v>
       </c>
       <c r="O16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P16" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="n">
         <v>1.44</v>
       </c>
-      <c r="P16" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T16" t="n">
+      <c r="V16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="X16" t="n">
         <v>6</v>
       </c>
-      <c r="U16" t="n">
+      <c r="Y16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE16" t="n">
         <v>10</v>
       </c>
-      <c r="V16" t="n">
-        <v>10</v>
-      </c>
-      <c r="W16" t="n">
-        <v>23</v>
-      </c>
-      <c r="X16" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y16" t="n">
+      <c r="AF16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL16" t="n">
         <v>41</v>
       </c>
-      <c r="Z16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC16" t="n">
+      <c r="AM16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO16" t="n">
         <v>81</v>
       </c>
-      <c r="AD16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH16" t="n">
+      <c r="AP16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>34</v>
       </c>
-      <c r="AI16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>41</v>
-      </c>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>EFtigcuB</t>
+          <t>WpxJwkSP</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2456,119 +2816,140 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>JAPAN - J1 LEAGUE</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Cerezo Osaka</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Okayama</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X17" t="n">
         <v>2.1</v>
       </c>
-      <c r="H17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K17" t="n">
-        <v>11</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T17" t="n">
+      <c r="Y17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="n">
         <v>7.5</v>
       </c>
-      <c r="U17" t="n">
-        <v>10</v>
-      </c>
-      <c r="V17" t="n">
-        <v>9</v>
-      </c>
-      <c r="W17" t="n">
-        <v>19</v>
-      </c>
-      <c r="X17" t="n">
+      <c r="AM17" t="n">
         <v>17</v>
       </c>
-      <c r="Y17" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB17" t="n">
+      <c r="AN17" t="n">
         <v>15</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AO17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>51</v>
       </c>
-      <c r="AD17" t="n">
-        <v>251</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>34</v>
+      <c r="AR17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>1.78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>8IwqeJAb</t>
+          <t>0CGHvbQH</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2588,109 +2969,132 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Machida</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="H18" t="n">
         <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="J18" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="K18" t="n">
-        <v>7</v>
+        <v>1.91</v>
       </c>
       <c r="L18" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>2.5</v>
+        <v>1.11</v>
       </c>
       <c r="N18" t="n">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P18" t="n">
-        <v>1.57</v>
+        <v>2.38</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="R18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T18" t="n">
-        <v>7.5</v>
-      </c>
+        <v>1.44</v>
+      </c>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>15</v>
+        <v>5.5</v>
       </c>
       <c r="V18" t="n">
-        <v>12</v>
+        <v>1.14</v>
       </c>
       <c r="W18" t="n">
-        <v>34</v>
+        <v>1.62</v>
       </c>
       <c r="X18" t="n">
-        <v>29</v>
+        <v>2.2</v>
       </c>
       <c r="Y18" t="n">
-        <v>41</v>
+        <v>2.2</v>
       </c>
       <c r="Z18" t="n">
-        <v>6.5</v>
+        <v>1.62</v>
       </c>
       <c r="AA18" t="n">
         <v>6</v>
       </c>
       <c r="AB18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI18" t="n">
         <v>19</v>
       </c>
-      <c r="AC18" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>501</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>23</v>
-      </c>
       <c r="AJ18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>41</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6VE1rtRh</t>
+          <t>EFtigcuB</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2710,109 +3114,128 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Okayama</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="H19" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="J19" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4</v>
+      </c>
+      <c r="M19" t="n">
         <v>1.05</v>
       </c>
-      <c r="K19" t="n">
+      <c r="N19" t="n">
         <v>11</v>
       </c>
-      <c r="L19" t="n">
+      <c r="O19" t="n">
         <v>1.29</v>
       </c>
-      <c r="M19" t="n">
+      <c r="P19" t="n">
         <v>3.5</v>
       </c>
-      <c r="N19" t="n">
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z19" t="n">
         <v>1.95</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T19" t="n">
-        <v>7</v>
-      </c>
-      <c r="U19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="V19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W19" t="n">
-        <v>13</v>
-      </c>
-      <c r="X19" t="n">
+      <c r="AA19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI19" t="n">
         <v>15</v>
       </c>
-      <c r="Y19" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC19" t="n">
+      <c r="AJ19" t="n">
         <v>51</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AK19" t="n">
         <v>251</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AL19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN19" t="n">
         <v>12</v>
       </c>
-      <c r="AF19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI19" t="n">
+      <c r="AO19" t="n">
         <v>34</v>
       </c>
-      <c r="AJ19" t="n">
-        <v>41</v>
-      </c>
+      <c r="AP19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Cjpzcutn</t>
+          <t>8IwqeJAb</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2832,109 +3255,132 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Machida</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="H20" t="n">
         <v>3.1</v>
       </c>
       <c r="I20" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="J20" t="n">
-        <v>1.08</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>8</v>
+        <v>1.91</v>
       </c>
       <c r="L20" t="n">
-        <v>1.36</v>
+        <v>3.25</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="N20" t="n">
+        <v>7</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X20" t="n">
         <v>2.25</v>
       </c>
-      <c r="O20" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T20" t="n">
-        <v>8</v>
-      </c>
-      <c r="U20" t="n">
-        <v>13</v>
-      </c>
-      <c r="V20" t="n">
-        <v>11</v>
-      </c>
-      <c r="W20" t="n">
-        <v>29</v>
-      </c>
-      <c r="X20" t="n">
-        <v>23</v>
-      </c>
       <c r="Y20" t="n">
-        <v>34</v>
+        <v>2.1</v>
       </c>
       <c r="Z20" t="n">
-        <v>8.5</v>
+        <v>1.67</v>
       </c>
       <c r="AA20" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AB20" t="n">
         <v>15</v>
       </c>
       <c r="AC20" t="n">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="AD20" t="n">
-        <v>301</v>
+        <v>34</v>
       </c>
       <c r="AE20" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="AF20" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AG20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>501</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM20" t="n">
         <v>10</v>
       </c>
-      <c r="AH20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI20" t="n">
+      <c r="AN20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO20" t="n">
         <v>23</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>34</v>
+      <c r="AP20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>1.93</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>dvAQxxeU</t>
+          <t>6VE1rtRh</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2954,109 +3400,128 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Kawasaki Frontale</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.35</v>
+        <v>1.75</v>
       </c>
       <c r="H21" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="I21" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="J21" t="n">
-        <v>1.06</v>
+        <v>2.38</v>
       </c>
       <c r="K21" t="n">
-        <v>10</v>
+        <v>2.2</v>
       </c>
       <c r="L21" t="n">
+        <v>5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N21" t="n">
+        <v>11</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V21" t="n">
         <v>1.33</v>
       </c>
-      <c r="M21" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="U21" t="n">
-        <v>11</v>
-      </c>
-      <c r="V21" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W21" t="n">
-        <v>23</v>
+        <v>1.4</v>
       </c>
       <c r="X21" t="n">
-        <v>21</v>
+        <v>2.75</v>
       </c>
       <c r="Y21" t="n">
-        <v>29</v>
+        <v>1.8</v>
       </c>
       <c r="Z21" t="n">
-        <v>9</v>
+        <v>1.95</v>
       </c>
       <c r="AA21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE21" t="n">
         <v>15</v>
       </c>
-      <c r="AC21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>301</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AF21" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AG21" t="n">
         <v>11</v>
       </c>
       <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP21" t="n">
         <v>34</v>
       </c>
-      <c r="AI21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>34</v>
-      </c>
+      <c r="AQ21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR21" t="inlineStr"/>
+      <c r="AS21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Y3gPzkPq</t>
+          <t>Cjpzcutn</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3076,109 +3541,128 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="G22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K22" t="n">
         <v>2.05</v>
       </c>
-      <c r="H22" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K22" t="n">
-        <v>9.5</v>
-      </c>
       <c r="L22" t="n">
-        <v>1.33</v>
+        <v>3.4</v>
       </c>
       <c r="M22" t="n">
-        <v>3.25</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>2.05</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.75</v>
+        <v>1.36</v>
       </c>
       <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W22" t="n">
         <v>1.44</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="X22" t="n">
         <v>2.63</v>
       </c>
-      <c r="R22" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T22" t="n">
-        <v>7</v>
-      </c>
-      <c r="U22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="V22" t="n">
-        <v>9</v>
-      </c>
-      <c r="W22" t="n">
-        <v>19</v>
-      </c>
-      <c r="X22" t="n">
-        <v>17</v>
-      </c>
       <c r="Y22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD22" t="n">
         <v>29</v>
       </c>
-      <c r="Z22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB22" t="n">
+      <c r="AE22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI22" t="n">
         <v>15</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AJ22" t="n">
         <v>51</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AK22" t="n">
         <v>301</v>
       </c>
-      <c r="AE22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>41</v>
-      </c>
+      <c r="AL22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR22" t="inlineStr"/>
+      <c r="AS22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>b5Bgp2dt</t>
+          <t>dvAQxxeU</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3198,109 +3682,128 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Verdy</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>FC Tokyo</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H23" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I23" t="n">
         <v>3.1</v>
       </c>
-      <c r="I23" t="n">
-        <v>3.4</v>
-      </c>
       <c r="J23" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="K23" t="n">
-        <v>7</v>
+        <v>2.05</v>
       </c>
       <c r="L23" t="n">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="M23" t="n">
-        <v>2.5</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="O23" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="P23" t="n">
-        <v>1.57</v>
+        <v>3.25</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="R23" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T23" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH23" t="n">
         <v>6</v>
       </c>
-      <c r="U23" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="V23" t="n">
-        <v>10</v>
-      </c>
-      <c r="W23" t="n">
-        <v>21</v>
-      </c>
-      <c r="X23" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>501</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AF23" t="n">
+      <c r="AI23" t="n">
         <v>15</v>
       </c>
-      <c r="AG23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI23" t="n">
+      <c r="AJ23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>301</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO23" t="n">
         <v>34</v>
       </c>
-      <c r="AJ23" t="n">
-        <v>41</v>
-      </c>
+      <c r="AP23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR23" t="inlineStr"/>
+      <c r="AS23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sp3AtKe5</t>
+          <t>Y3gPzkPq</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3320,109 +3823,128 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.7</v>
+        <v>2.05</v>
       </c>
       <c r="H24" t="n">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="I24" t="n">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.13</v>
+        <v>2.75</v>
       </c>
       <c r="K24" t="n">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="L24" t="n">
-        <v>1.57</v>
+        <v>4.33</v>
       </c>
       <c r="M24" t="n">
-        <v>2.25</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>2.88</v>
+        <v>9.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P24" t="n">
-        <v>1.67</v>
+        <v>3.25</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R24" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T24" t="n">
-        <v>7.5</v>
-      </c>
+        <v>1.75</v>
+      </c>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
       <c r="U24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE24" t="n">
         <v>17</v>
       </c>
-      <c r="V24" t="n">
+      <c r="AF24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI24" t="n">
         <v>15</v>
       </c>
-      <c r="W24" t="n">
+      <c r="AJ24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>301</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO24" t="n">
         <v>41</v>
       </c>
-      <c r="X24" t="n">
+      <c r="AP24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ24" t="n">
         <v>41</v>
       </c>
-      <c r="Y24" t="n">
-        <v>51</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>501</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>41</v>
-      </c>
+      <c r="AR24" t="inlineStr"/>
+      <c r="AS24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>KvtqQbBO</t>
+          <t>b5Bgp2dt</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3432,7 +3954,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3442,109 +3964,132 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Verdy</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Shimizu S-Pulse</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="H25" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="J25" t="n">
-        <v>1.08</v>
+        <v>3.1</v>
       </c>
       <c r="K25" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>501</v>
+      </c>
+      <c r="AL25" t="n">
         <v>7.5</v>
       </c>
-      <c r="L25" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M25" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="N25" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R25" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="T25" t="n">
-        <v>6</v>
-      </c>
-      <c r="U25" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="V25" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W25" t="n">
-        <v>17</v>
-      </c>
-      <c r="X25" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y25" t="n">
+      <c r="AM25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP25" t="n">
         <v>34</v>
       </c>
-      <c r="Z25" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>501</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH25" t="n">
+      <c r="AQ25" t="n">
         <v>41</v>
       </c>
-      <c r="AI25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>41</v>
+      <c r="AR25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>YJPj1B56</t>
+          <t>Sp3AtKe5</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3554,119 +4099,142 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>JAPAN - J1 LEAGUE</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>SC Farense</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.17</v>
+        <v>3.7</v>
       </c>
       <c r="H26" t="n">
-        <v>8.5</v>
+        <v>2.88</v>
       </c>
       <c r="I26" t="n">
-        <v>13</v>
+        <v>2.25</v>
       </c>
       <c r="J26" t="n">
-        <v>1.01</v>
+        <v>4.5</v>
       </c>
       <c r="K26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N26" t="n">
+        <v>6</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="n">
+        <v>6</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>501</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP26" t="n">
         <v>23</v>
       </c>
-      <c r="L26" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="M26" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="O26" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>4</v>
-      </c>
-      <c r="R26" t="n">
+      <c r="AQ26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR26" t="n">
         <v>2.1</v>
       </c>
-      <c r="S26" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T26" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="U26" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="V26" t="n">
-        <v>11</v>
-      </c>
-      <c r="W26" t="n">
-        <v>7</v>
-      </c>
-      <c r="X26" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>501</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>201</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>81</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>67</v>
+      <c r="AS26" t="n">
+        <v>1.78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>OKOeSNB5</t>
+          <t>KvtqQbBO</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3676,119 +4244,142 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SCOTLAND - CHAMPIONSHIP</t>
+          <t>JAPAN - J1 LEAGUE</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Dunfermline</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Shimizu S-Pulse</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="H27" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I27" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K27" t="n">
         <v>2</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M27" t="n">
         <v>1.08</v>
       </c>
-      <c r="K27" t="n">
-        <v>7</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M27" t="n">
-        <v>2.75</v>
-      </c>
       <c r="N27" t="n">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="P27" t="n">
-        <v>1.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="R27" t="n">
-        <v>2</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T27" t="n">
-        <v>9</v>
-      </c>
+        <v>1.57</v>
+      </c>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
       <c r="U27" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD27" t="n">
         <v>17</v>
       </c>
-      <c r="V27" t="n">
-        <v>13</v>
-      </c>
-      <c r="W27" t="n">
-        <v>41</v>
-      </c>
-      <c r="X27" t="n">
+      <c r="AE27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF27" t="n">
         <v>34</v>
       </c>
-      <c r="Y27" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA27" t="n">
+      <c r="AG27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH27" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>17</v>
       </c>
       <c r="AI27" t="n">
         <v>19</v>
       </c>
       <c r="AJ27" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>501</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP27" t="n">
         <v>34</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>IeP3eMuh</t>
+          <t>YJPj1B56</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3798,119 +4389,142 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SCOTLAND - CHAMPIONSHIP</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Queen's Park</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Airdrieonians</t>
+          <t>SC Farense</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.3</v>
+        <v>1.17</v>
       </c>
       <c r="H28" t="n">
-        <v>3.75</v>
+        <v>8.5</v>
       </c>
       <c r="I28" t="n">
-        <v>2.6</v>
+        <v>13</v>
       </c>
       <c r="J28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>12</v>
+      </c>
+      <c r="M28" t="n">
         <v>1.01</v>
       </c>
-      <c r="K28" t="n">
-        <v>13</v>
-      </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
+        <v>23</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W28" t="n">
         <v>1.22</v>
       </c>
-      <c r="M28" t="n">
+      <c r="X28" t="n">
         <v>4</v>
       </c>
-      <c r="N28" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="O28" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S28" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T28" t="n">
+      <c r="Y28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA28" t="n">
         <v>9.5</v>
       </c>
-      <c r="U28" t="n">
-        <v>13</v>
-      </c>
-      <c r="V28" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W28" t="n">
+      <c r="AB28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG28" t="n">
         <v>21</v>
       </c>
-      <c r="X28" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>10</v>
-      </c>
       <c r="AH28" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AI28" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AJ28" t="n">
-        <v>26</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>501</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>201</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>81</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR28" t="inlineStr"/>
+      <c r="AS28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0EkEZEzB</t>
+          <t>OKOeSNB5</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3920,119 +4534,142 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>SCOTLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Dunfermline</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.57</v>
+        <v>3.4</v>
       </c>
       <c r="H29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N29" t="n">
+        <v>7</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="n">
         <v>4.33</v>
       </c>
-      <c r="I29" t="n">
-        <v>5</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K29" t="n">
-        <v>15</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M29" t="n">
-        <v>4</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O29" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T29" t="n">
-        <v>8</v>
-      </c>
-      <c r="U29" t="n">
-        <v>8</v>
-      </c>
       <c r="V29" t="n">
-        <v>8.5</v>
+        <v>1.2</v>
       </c>
       <c r="W29" t="n">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="X29" t="n">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="Z29" t="n">
-        <v>13</v>
+        <v>1.73</v>
       </c>
       <c r="AA29" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB29" t="n">
         <v>17</v>
       </c>
       <c r="AC29" t="n">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="AD29" t="n">
-        <v>201</v>
+        <v>41</v>
       </c>
       <c r="AE29" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AF29" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI29" t="n">
         <v>17</v>
       </c>
-      <c r="AH29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>41</v>
-      </c>
       <c r="AJ29" t="n">
-        <v>41</v>
+        <v>67</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>2.05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>dtqNXh5N</t>
+          <t>IeP3eMuh</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4042,114 +4679,697 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>SCOTLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Queen's Park</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Airdrieonians</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H30" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I30" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="J30" t="n">
-        <v>1.04</v>
+        <v>2.88</v>
       </c>
       <c r="K30" t="n">
-        <v>12</v>
+        <v>2.2</v>
       </c>
       <c r="L30" t="n">
-        <v>1.25</v>
+        <v>3.2</v>
       </c>
       <c r="M30" t="n">
-        <v>3.75</v>
+        <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>1.83</v>
+        <v>13</v>
       </c>
       <c r="O30" t="n">
-        <v>2.03</v>
+        <v>1.22</v>
       </c>
       <c r="P30" t="n">
-        <v>1.36</v>
+        <v>4</v>
       </c>
       <c r="Q30" t="n">
-        <v>3</v>
+        <v>1.73</v>
       </c>
       <c r="R30" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S30" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T30" t="n">
-        <v>8.5</v>
-      </c>
+        <v>2.08</v>
+      </c>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
       <c r="U30" t="n">
-        <v>10</v>
+        <v>2.75</v>
       </c>
       <c r="V30" t="n">
-        <v>9</v>
+        <v>1.4</v>
       </c>
       <c r="W30" t="n">
-        <v>17</v>
+        <v>1.33</v>
       </c>
       <c r="X30" t="n">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="Y30" t="n">
-        <v>23</v>
+        <v>1.62</v>
       </c>
       <c r="Z30" t="n">
-        <v>12</v>
+        <v>2.2</v>
       </c>
       <c r="AA30" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AB30" t="n">
         <v>13</v>
       </c>
       <c r="AC30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>41</v>
       </c>
-      <c r="AD30" t="n">
+      <c r="AK30" t="n">
         <v>151</v>
       </c>
-      <c r="AE30" t="n">
+      <c r="AL30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR30" t="inlineStr"/>
+      <c r="AS30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>0EkEZEzB</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>02/04/2025</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Sion</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Winterthur</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L31" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N31" t="n">
+        <v>15</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD31" t="n">
         <v>12</v>
       </c>
-      <c r="AF30" t="n">
+      <c r="AE31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR31" t="inlineStr"/>
+      <c r="AS31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>dtqNXh5N</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>02/04/2025</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Lausanne</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L32" t="n">
+        <v>4</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N32" t="n">
+        <v>12</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM32" t="n">
         <v>19</v>
       </c>
-      <c r="AG30" t="n">
+      <c r="AN32" t="n">
         <v>12</v>
       </c>
-      <c r="AH30" t="n">
+      <c r="AO32" t="n">
         <v>41</v>
       </c>
-      <c r="AI30" t="n">
+      <c r="AP32" t="n">
         <v>26</v>
       </c>
-      <c r="AJ30" t="n">
+      <c r="AQ32" t="n">
         <v>34</v>
       </c>
+      <c r="AR32" t="inlineStr"/>
+      <c r="AS32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Cx9E7tKb</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>02/04/2025</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>THAILAND - THAI LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Khonkaen Utd.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Muang Thong Utd</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J33" t="n">
+        <v>5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N33" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X33" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>45</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AR33" t="inlineStr"/>
+      <c r="AS33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>0dAk9ge3</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>02/04/2025</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>THAILAND - THAI LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Ratchaburi</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Bangkok Utd</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L34" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N34" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X34" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>37</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>175</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>16</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>20</v>
+      </c>
+      <c r="AR34" t="inlineStr"/>
+      <c r="AS34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-04-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS34"/>
+  <dimension ref="A1:AS37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2949,7 +2949,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0CGHvbQH</t>
+          <t>21d2fKY8</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2959,142 +2959,142 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>JAPAN - J1 LEAGUE</t>
+          <t>ENGLAND - LEAGUE TWO</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Notts Co</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>MK Dons</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.45</v>
+        <v>1.67</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="I18" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="J18" t="n">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="K18" t="n">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.11</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.53</v>
+        <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>2.38</v>
+        <v>4.33</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.7</v>
+        <v>1.65</v>
       </c>
       <c r="R18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.44</v>
       </c>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.14</v>
-      </c>
       <c r="W18" t="n">
-        <v>1.62</v>
+        <v>1.33</v>
       </c>
       <c r="X18" t="n">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="Y18" t="n">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="AA18" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC18" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AF18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>41</v>
       </c>
-      <c r="AG18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>81</v>
-      </c>
       <c r="AK18" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AL18" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AM18" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AN18" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AO18" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AP18" t="n">
         <v>34</v>
       </c>
       <c r="AQ18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>1.8</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="AR18" t="inlineStr"/>
+      <c r="AS18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>EFtigcuB</t>
+          <t>6oBHLZsp</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3104,130 +3104,126 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>JAPAN - J1 LEAGUE</t>
+          <t>GREECE - SUPER LEAGUE 2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Cerezo Osaka</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Okayama</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q19" t="n">
         <v>2.1</v>
       </c>
-      <c r="H19" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N19" t="n">
-        <v>11</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2</v>
-      </c>
       <c r="R19" t="n">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="V19" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="W19" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X19" t="n">
-        <v>2.75</v>
+        <v>2.42</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AA19" t="n">
-        <v>7.5</v>
+        <v>5.9</v>
       </c>
       <c r="AB19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AC19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD19" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>7.2</v>
       </c>
       <c r="AH19" t="n">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="AI19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ19" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="AK19" t="n">
-        <v>251</v>
+        <v>800</v>
       </c>
       <c r="AL19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM19" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="AN19" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO19" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="AP19" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="AQ19" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr"/>
@@ -3235,7 +3231,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>8IwqeJAb</t>
+          <t>Wb9y79g4</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3245,142 +3241,138 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>JAPAN - J1 LEAGUE</t>
+          <t>ITALY - SERIE C</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>Pro Patria</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Machida</t>
+          <t>Atalanta U23</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.2</v>
+        <v>2.72</v>
       </c>
       <c r="H20" t="n">
-        <v>3.1</v>
+        <v>2.82</v>
       </c>
       <c r="I20" t="n">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="K20" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L20" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="M20" t="n">
         <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="P20" t="n">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="R20" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="V20" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="W20" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="X20" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.67</v>
+        <v>1.87</v>
       </c>
       <c r="AA20" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD20" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE20" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AF20" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AG20" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH20" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="AI20" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AJ20" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AK20" t="n">
-        <v>501</v>
+        <v>600</v>
       </c>
       <c r="AL20" t="n">
-        <v>6</v>
+        <v>7.1</v>
       </c>
       <c r="AM20" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AN20" t="n">
         <v>10</v>
       </c>
       <c r="AO20" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AP20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>1.93</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6VE1rtRh</t>
+          <t>0CGHvbQH</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3400,114 +3392,114 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="H21" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="J21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P21" t="n">
         <v>2.38</v>
       </c>
-      <c r="K21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L21" t="n">
-        <v>5</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N21" t="n">
-        <v>11</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3.5</v>
-      </c>
       <c r="Q21" t="n">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="R21" t="n">
-        <v>1.9</v>
+        <v>1.44</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="V21" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="W21" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="X21" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="AA21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL21" t="n">
         <v>7</v>
       </c>
-      <c r="AB21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD21" t="n">
+      <c r="AM21" t="n">
         <v>13</v>
       </c>
-      <c r="AE21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>251</v>
-      </c>
-      <c r="AL21" t="n">
+      <c r="AN21" t="n">
         <v>12</v>
       </c>
-      <c r="AM21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>15</v>
-      </c>
       <c r="AO21" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AP21" t="n">
         <v>34</v>
@@ -3515,13 +3507,17 @@
       <c r="AQ21" t="n">
         <v>41</v>
       </c>
-      <c r="AR21" t="inlineStr"/>
-      <c r="AS21" t="inlineStr"/>
+      <c r="AR21" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Cjpzcutn</t>
+          <t>EFtigcuB</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3541,63 +3537,63 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Okayama</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="H22" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="J22" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="K22" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="R22" t="n">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="V22" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="W22" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X22" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y22" t="n">
         <v>1.8</v>
@@ -3606,28 +3602,28 @@
         <v>1.95</v>
       </c>
       <c r="AA22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AC22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AD22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF22" t="n">
         <v>29</v>
       </c>
-      <c r="AE22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>34</v>
-      </c>
       <c r="AG22" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AH22" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI22" t="n">
         <v>15</v>
@@ -3636,22 +3632,22 @@
         <v>51</v>
       </c>
       <c r="AK22" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AM22" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AN22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO22" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AP22" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ22" t="n">
         <v>34</v>
@@ -3662,7 +3658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>dvAQxxeU</t>
+          <t>8IwqeJAb</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3682,128 +3678,132 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Machida</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.35</v>
+        <v>3.2</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="K23" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="L23" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="P23" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="R23" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="W23" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="X23" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="AA23" t="n">
         <v>7.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AD23" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AE23" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AF23" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG23" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="AH23" t="n">
         <v>6</v>
       </c>
       <c r="AI23" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AJ23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK23" t="n">
-        <v>301</v>
+        <v>501</v>
       </c>
       <c r="AL23" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AM23" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AN23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO23" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AP23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR23" t="inlineStr"/>
-      <c r="AS23" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1.93</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Y3gPzkPq</t>
+          <t>6VE1rtRh</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3823,93 +3823,93 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>Kawasaki Frontale</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="H24" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>5</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N24" t="n">
+        <v>11</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P24" t="n">
         <v>3.5</v>
       </c>
-      <c r="J24" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L24" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N24" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3.25</v>
-      </c>
       <c r="Q24" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R24" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V24" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="W24" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X24" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AA24" t="n">
         <v>7</v>
       </c>
       <c r="AB24" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG24" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI24" t="n">
         <v>15</v>
@@ -3918,22 +3918,22 @@
         <v>51</v>
       </c>
       <c r="AK24" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL24" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AM24" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AN24" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AO24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ24" t="n">
         <v>41</v>
@@ -3944,7 +3944,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>b5Bgp2dt</t>
+          <t>Cjpzcutn</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3964,132 +3964,128 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Verdy</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>FC Tokyo</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="H25" t="n">
         <v>3.1</v>
       </c>
       <c r="I25" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J25" t="n">
         <v>3.4</v>
       </c>
-      <c r="J25" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K25" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="L25" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="M25" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O25" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="P25" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="R25" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="W25" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="X25" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="AA25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AC25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD25" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AE25" t="n">
         <v>23</v>
       </c>
       <c r="AF25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG25" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH25" t="n">
         <v>6</v>
       </c>
       <c r="AI25" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AJ25" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AK25" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="AL25" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN25" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AO25" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AP25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ25" t="n">
         <v>34</v>
       </c>
-      <c r="AQ25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>1.9</v>
-      </c>
+      <c r="AR25" t="inlineStr"/>
+      <c r="AS25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sp3AtKe5</t>
+          <t>dvAQxxeU</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -4109,132 +4105,128 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.7</v>
+        <v>2.35</v>
       </c>
       <c r="H26" t="n">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="J26" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="K26" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="L26" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M26" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O26" t="n">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="P26" t="n">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="R26" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="V26" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="W26" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="X26" t="n">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="Y26" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="AA26" t="n">
         <v>7.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AC26" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AE26" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AF26" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AG26" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="AH26" t="n">
         <v>6</v>
       </c>
       <c r="AI26" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AJ26" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AK26" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="AL26" t="n">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="AM26" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AN26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO26" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AP26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>1.78</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="AR26" t="inlineStr"/>
+      <c r="AS26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>KvtqQbBO</t>
+          <t>Y3gPzkPq</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4244,7 +4236,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -4254,132 +4246,128 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Shimizu S-Pulse</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="G27" t="n">
         <v>2.05</v>
       </c>
       <c r="H27" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I27" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="J27" t="n">
         <v>2.75</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L27" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M27" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="P27" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="R27" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="V27" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="W27" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="X27" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="AA27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB27" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AC27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG27" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>7.5</v>
       </c>
       <c r="AH27" t="n">
         <v>6.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AJ27" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK27" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="AL27" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO27" t="n">
         <v>41</v>
       </c>
       <c r="AP27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ27" t="n">
         <v>41</v>
       </c>
-      <c r="AR27" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>2.1</v>
-      </c>
+      <c r="AR27" t="inlineStr"/>
+      <c r="AS27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>YJPj1B56</t>
+          <t>b5Bgp2dt</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4389,77 +4377,73 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>JAPAN - J1 LEAGUE</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Verdy</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>SC Farense</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>7</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
         <v>1.17</v>
       </c>
-      <c r="H28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="I28" t="n">
-        <v>13</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L28" t="n">
-        <v>12</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N28" t="n">
-        <v>23</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P28" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R28" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="U28" t="n">
-        <v>2</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W28" t="n">
-        <v>1.22</v>
+        <v>1.57</v>
       </c>
       <c r="X28" t="n">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Y28" t="n">
         <v>2.1</v>
@@ -4468,31 +4452,31 @@
         <v>1.67</v>
       </c>
       <c r="AA28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB28" t="n">
         <v>9.5</v>
       </c>
-      <c r="AB28" t="n">
+      <c r="AC28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG28" t="n">
         <v>6.5</v>
       </c>
-      <c r="AC28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>21</v>
-      </c>
       <c r="AH28" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="AI28" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AJ28" t="n">
         <v>81</v>
@@ -4501,30 +4485,34 @@
         <v>501</v>
       </c>
       <c r="AL28" t="n">
-        <v>29</v>
+        <v>7.5</v>
       </c>
       <c r="AM28" t="n">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="AN28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP28" t="n">
         <v>34</v>
       </c>
-      <c r="AO28" t="n">
-        <v>201</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>81</v>
-      </c>
       <c r="AQ28" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR28" t="inlineStr"/>
-      <c r="AS28" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>OKOeSNB5</t>
+          <t>Sp3AtKe5</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4534,142 +4522,142 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SCOTLAND - CHAMPIONSHIP</t>
+          <t>JAPAN - J1 LEAGUE</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Dunfermline</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H29" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K29" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="L29" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="M29" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="N29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O29" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R29" t="n">
         <v>1.4</v>
-      </c>
-      <c r="P29" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.6</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="V29" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="W29" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="X29" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Y29" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="AA29" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AB29" t="n">
         <v>17</v>
       </c>
       <c r="AC29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD29" t="n">
         <v>41</v>
       </c>
       <c r="AE29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF29" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG29" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI29" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ29" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>501</v>
       </c>
       <c r="AL29" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AM29" t="n">
         <v>9</v>
       </c>
       <c r="AN29" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO29" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AP29" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR29" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.05</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>IeP3eMuh</t>
+          <t>KvtqQbBO</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4679,138 +4667,142 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SCOTLAND - CHAMPIONSHIP</t>
+          <t>JAPAN - J1 LEAGUE</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Queen's Park</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Airdrieonians</t>
+          <t>Shimizu S-Pulse</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="H30" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="I30" t="n">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="J30" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K30" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L30" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N30" t="n">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="O30" t="n">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="P30" t="n">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.73</v>
+        <v>2.35</v>
       </c>
       <c r="R30" t="n">
-        <v>2.08</v>
+        <v>1.57</v>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="n">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="V30" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="W30" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="X30" t="n">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.62</v>
+        <v>2.05</v>
       </c>
       <c r="Z30" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="AA30" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="AB30" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AC30" t="n">
         <v>9.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE30" t="n">
         <v>19</v>
       </c>
       <c r="AF30" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AG30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>501</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN30" t="n">
         <v>13</v>
       </c>
-      <c r="AH30" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ30" t="n">
+      <c r="AO30" t="n">
         <v>41</v>
       </c>
-      <c r="AK30" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>26</v>
-      </c>
       <c r="AP30" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AQ30" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR30" t="inlineStr"/>
-      <c r="AS30" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>0EkEZEzB</t>
+          <t>YJPj1B56</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4820,130 +4812,134 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>SC Farense</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.57</v>
+        <v>1.17</v>
       </c>
       <c r="H31" t="n">
-        <v>4.33</v>
+        <v>8.5</v>
       </c>
       <c r="I31" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>12</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N31" t="n">
+        <v>23</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y31" t="n">
         <v>2.1</v>
       </c>
-      <c r="K31" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L31" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N31" t="n">
-        <v>15</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P31" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R31" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X31" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>1.8</v>
-      </c>
       <c r="Z31" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="AA31" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AD31" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF31" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AG31" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AH31" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="AI31" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AJ31" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AK31" t="n">
+        <v>501</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO31" t="n">
         <v>201</v>
       </c>
-      <c r="AL31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>51</v>
-      </c>
       <c r="AP31" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AQ31" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR31" t="inlineStr"/>
       <c r="AS31" t="inlineStr"/>
@@ -4951,7 +4947,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>dtqNXh5N</t>
+          <t>OKOeSNB5</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4961,138 +4957,142 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>SCOTLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Dunfermline</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="G32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I32" t="n">
         <v>2</v>
       </c>
-      <c r="H32" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3.5</v>
-      </c>
       <c r="J32" t="n">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="K32" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="M32" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N32" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="O32" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="P32" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="R32" t="n">
-        <v>2.03</v>
+        <v>1.6</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="V32" t="n">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="W32" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="X32" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="Z32" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="AA32" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB32" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AC32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AM32" t="n">
         <v>9</v>
       </c>
-      <c r="AD32" t="n">
+      <c r="AN32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AO32" t="n">
         <v>17</v>
       </c>
-      <c r="AE32" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM32" t="n">
+      <c r="AP32" t="n">
         <v>19</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>26</v>
       </c>
       <c r="AQ32" t="n">
         <v>34</v>
       </c>
-      <c r="AR32" t="inlineStr"/>
-      <c r="AS32" t="inlineStr"/>
+      <c r="AR32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>2.05</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Cx9E7tKb</t>
+          <t>IeP3eMuh</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -5102,130 +5102,130 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>SCOTLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Khonkaen Utd.</t>
+          <t>Queen's Park</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Muang Thong Utd</t>
+          <t>Airdrieonians</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>5.3</v>
+        <v>2.3</v>
       </c>
       <c r="H33" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="I33" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="J33" t="n">
-        <v>5</v>
+        <v>2.88</v>
       </c>
       <c r="K33" t="n">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L33" t="n">
-        <v>1.93</v>
+        <v>3.2</v>
       </c>
       <c r="M33" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>9.75</v>
+        <v>13</v>
       </c>
       <c r="O33" t="n">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="P33" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.42</v>
+        <v>1.73</v>
       </c>
       <c r="R33" t="n">
-        <v>2.67</v>
+        <v>2.08</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="V33" t="n">
-        <v>1.72</v>
+        <v>1.4</v>
       </c>
       <c r="W33" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="X33" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="Z33" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="AA33" t="n">
-        <v>22</v>
+        <v>9.5</v>
       </c>
       <c r="AB33" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="AC33" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="AE33" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="AF33" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="AG33" t="n">
-        <v>9.75</v>
+        <v>13</v>
       </c>
       <c r="AH33" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ33" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AK33" t="n">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="AL33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM33" t="n">
-        <v>9.75</v>
+        <v>15</v>
       </c>
       <c r="AN33" t="n">
-        <v>8.25</v>
+        <v>10</v>
       </c>
       <c r="AO33" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AP33" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="AQ33" t="n">
-        <v>17.5</v>
+        <v>26</v>
       </c>
       <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr"/>
@@ -5233,7 +5233,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0dAk9ge3</t>
+          <t>0EkEZEzB</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -5243,133 +5243,556 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Ratchaburi</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Bangkok Utd</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.8</v>
+        <v>1.57</v>
       </c>
       <c r="H34" t="n">
-        <v>3.15</v>
+        <v>4.33</v>
       </c>
       <c r="I34" t="n">
-        <v>2.47</v>
+        <v>5</v>
       </c>
       <c r="J34" t="n">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="K34" t="n">
-        <v>2.15</v>
+        <v>2.38</v>
       </c>
       <c r="L34" t="n">
-        <v>2.95</v>
+        <v>5.5</v>
       </c>
       <c r="M34" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>8.25</v>
+        <v>15</v>
       </c>
       <c r="O34" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P34" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="R34" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="V34" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="W34" t="n">
         <v>1.33</v>
       </c>
       <c r="X34" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.55</v>
+        <v>1.91</v>
       </c>
       <c r="AA34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD34" t="n">
         <v>12</v>
       </c>
-      <c r="AB34" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>37</v>
-      </c>
       <c r="AE34" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AF34" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG34" t="n">
-        <v>8.25</v>
+        <v>13</v>
       </c>
       <c r="AH34" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AJ34" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="AK34" t="n">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="AL34" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AM34" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="AN34" t="n">
-        <v>9.25</v>
+        <v>17</v>
       </c>
       <c r="AO34" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="AP34" t="n">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="AQ34" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>dtqNXh5N</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>02/04/2025</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Lausanne</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L35" t="n">
+        <v>4</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N35" t="n">
+        <v>12</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR35" t="inlineStr"/>
+      <c r="AS35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Cx9E7tKb</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>02/04/2025</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>THAILAND - THAI LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Khonkaen Utd.</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Muang Thong Utd</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J36" t="n">
+        <v>5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N36" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X36" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>45</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AR36" t="inlineStr"/>
+      <c r="AS36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>0dAk9ge3</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>02/04/2025</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>THAILAND - THAI LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Ratchaburi</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Bangkok Utd</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L37" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N37" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X37" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>37</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>175</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>16</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>20</v>
+      </c>
+      <c r="AR37" t="inlineStr"/>
+      <c r="AS37" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
